--- a/BackTest/2020-01-16 BackTest ICX.xlsx
+++ b/BackTest/2020-01-16 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>153.5</v>
       </c>
       <c r="F2" t="n">
-        <v>6164.9115</v>
+        <v>1325.5331</v>
       </c>
       <c r="G2" t="n">
-        <v>152.8633333333334</v>
+        <v>152.8233333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>154.2</v>
+        <v>153.5</v>
       </c>
       <c r="C3" t="n">
-        <v>155</v>
+        <v>153.5</v>
       </c>
       <c r="D3" t="n">
-        <v>155</v>
+        <v>153.5</v>
       </c>
       <c r="E3" t="n">
-        <v>154.2</v>
+        <v>153.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1290.997363677419</v>
+        <v>6164.9115</v>
       </c>
       <c r="G3" t="n">
-        <v>152.9283333333334</v>
+        <v>152.8633333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>154.4</v>
+        <v>154.2</v>
       </c>
       <c r="C4" t="n">
-        <v>154.8</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
-        <v>154.8</v>
+        <v>155</v>
       </c>
       <c r="E4" t="n">
-        <v>154.4</v>
+        <v>154.2</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.3776</v>
+        <v>1290.997363677419</v>
       </c>
       <c r="G4" t="n">
-        <v>152.9416666666667</v>
+        <v>152.9283333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>154.8</v>
+        <v>154.4</v>
       </c>
       <c r="C5" t="n">
         <v>154.8</v>
@@ -547,13 +547,13 @@
         <v>154.8</v>
       </c>
       <c r="E5" t="n">
-        <v>154.8</v>
+        <v>154.4</v>
       </c>
       <c r="F5" t="n">
-        <v>17.9243</v>
+        <v>10380.3776</v>
       </c>
       <c r="G5" t="n">
-        <v>152.9716666666667</v>
+        <v>152.9416666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>154.1</v>
+        <v>154.8</v>
       </c>
       <c r="C6" t="n">
-        <v>154.9</v>
+        <v>154.8</v>
       </c>
       <c r="D6" t="n">
-        <v>154.9</v>
+        <v>154.8</v>
       </c>
       <c r="E6" t="n">
-        <v>153.1</v>
+        <v>154.8</v>
       </c>
       <c r="F6" t="n">
-        <v>31564.3028</v>
+        <v>17.9243</v>
       </c>
       <c r="G6" t="n">
-        <v>153.0166666666667</v>
+        <v>152.9716666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>154.9</v>
+        <v>154.1</v>
       </c>
       <c r="C7" t="n">
         <v>154.9</v>
@@ -617,13 +617,13 @@
         <v>154.9</v>
       </c>
       <c r="E7" t="n">
-        <v>154.9</v>
+        <v>153.1</v>
       </c>
       <c r="F7" t="n">
-        <v>513.6457</v>
+        <v>31564.3028</v>
       </c>
       <c r="G7" t="n">
-        <v>153.0616666666667</v>
+        <v>153.0166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>154.8</v>
+        <v>154.9</v>
       </c>
       <c r="C8" t="n">
-        <v>155</v>
+        <v>154.9</v>
       </c>
       <c r="D8" t="n">
-        <v>155</v>
+        <v>154.9</v>
       </c>
       <c r="E8" t="n">
-        <v>154.8</v>
+        <v>154.9</v>
       </c>
       <c r="F8" t="n">
-        <v>4993.0861</v>
+        <v>513.6457</v>
       </c>
       <c r="G8" t="n">
-        <v>153.1083333333334</v>
+        <v>153.0616666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>154.1</v>
+        <v>154.8</v>
       </c>
       <c r="C9" t="n">
-        <v>154.1</v>
+        <v>155</v>
       </c>
       <c r="D9" t="n">
-        <v>154.1</v>
+        <v>155</v>
       </c>
       <c r="E9" t="n">
-        <v>154.1</v>
+        <v>154.8</v>
       </c>
       <c r="F9" t="n">
-        <v>332.4971</v>
+        <v>4993.0861</v>
       </c>
       <c r="G9" t="n">
-        <v>153.175</v>
+        <v>153.1083333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>154.1</v>
       </c>
       <c r="C10" t="n">
-        <v>153</v>
+        <v>154.1</v>
       </c>
       <c r="D10" t="n">
         <v>154.1</v>
       </c>
       <c r="E10" t="n">
-        <v>153</v>
+        <v>154.1</v>
       </c>
       <c r="F10" t="n">
-        <v>125</v>
+        <v>332.4971</v>
       </c>
       <c r="G10" t="n">
-        <v>153.2183333333334</v>
+        <v>153.175</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153</v>
+        <v>154.1</v>
       </c>
       <c r="C11" t="n">
         <v>153</v>
       </c>
       <c r="D11" t="n">
-        <v>153</v>
+        <v>154.1</v>
       </c>
       <c r="E11" t="n">
         <v>153</v>
       </c>
       <c r="F11" t="n">
-        <v>816.2854</v>
+        <v>125</v>
       </c>
       <c r="G11" t="n">
-        <v>153.2816666666667</v>
+        <v>153.2183333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>153</v>
       </c>
       <c r="F12" t="n">
-        <v>560.5423</v>
+        <v>816.2854</v>
       </c>
       <c r="G12" t="n">
-        <v>153.325</v>
+        <v>153.2816666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="C13" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="D13" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="E13" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="F13" t="n">
-        <v>3292.1892</v>
+        <v>560.5423</v>
       </c>
       <c r="G13" t="n">
-        <v>153.32</v>
+        <v>153.325</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>151.3</v>
+        <v>151.4</v>
       </c>
       <c r="C14" t="n">
-        <v>151.3</v>
+        <v>151.4</v>
       </c>
       <c r="D14" t="n">
-        <v>151.3</v>
+        <v>151.4</v>
       </c>
       <c r="E14" t="n">
-        <v>151.3</v>
+        <v>151.4</v>
       </c>
       <c r="F14" t="n">
-        <v>17074.9735</v>
+        <v>3292.1892</v>
       </c>
       <c r="G14" t="n">
-        <v>153.2916666666667</v>
+        <v>153.32</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152.9</v>
+        <v>151.3</v>
       </c>
       <c r="C15" t="n">
-        <v>152.9</v>
+        <v>151.3</v>
       </c>
       <c r="D15" t="n">
-        <v>152.9</v>
+        <v>151.3</v>
       </c>
       <c r="E15" t="n">
-        <v>152.9</v>
+        <v>151.3</v>
       </c>
       <c r="F15" t="n">
-        <v>347.6928</v>
+        <v>17074.9735</v>
       </c>
       <c r="G15" t="n">
-        <v>153.2866666666667</v>
+        <v>153.2916666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="C16" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="D16" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="E16" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1147.7591</v>
+        <v>347.6928</v>
       </c>
       <c r="G16" t="n">
-        <v>153.2983333333333</v>
+        <v>153.2866666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="C17" t="n">
-        <v>154.2</v>
+        <v>153</v>
       </c>
       <c r="D17" t="n">
-        <v>154.2</v>
+        <v>153</v>
       </c>
       <c r="E17" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="F17" t="n">
-        <v>215</v>
+        <v>1147.7591</v>
       </c>
       <c r="G17" t="n">
-        <v>153.3466666666667</v>
+        <v>153.2983333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>152.7</v>
+        <v>152.4</v>
       </c>
       <c r="C18" t="n">
-        <v>153.2</v>
+        <v>154.2</v>
       </c>
       <c r="D18" t="n">
-        <v>153.2</v>
+        <v>154.2</v>
       </c>
       <c r="E18" t="n">
-        <v>151.6</v>
+        <v>152.4</v>
       </c>
       <c r="F18" t="n">
-        <v>36930</v>
+        <v>215</v>
       </c>
       <c r="G18" t="n">
-        <v>153.3766666666667</v>
+        <v>153.3466666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="C19" t="n">
         <v>153.2</v>
       </c>
-      <c r="C19" t="n">
-        <v>154.1</v>
-      </c>
       <c r="D19" t="n">
-        <v>154.1</v>
+        <v>153.2</v>
       </c>
       <c r="E19" t="n">
-        <v>153.2</v>
+        <v>151.6</v>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>36930</v>
       </c>
       <c r="G19" t="n">
-        <v>153.4116666666667</v>
+        <v>153.3766666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>154.1</v>
+        <v>153.2</v>
       </c>
       <c r="C20" t="n">
         <v>154.1</v>
@@ -1072,13 +1072,13 @@
         <v>154.1</v>
       </c>
       <c r="E20" t="n">
-        <v>154.1</v>
+        <v>153.2</v>
       </c>
       <c r="F20" t="n">
-        <v>38073</v>
+        <v>250</v>
       </c>
       <c r="G20" t="n">
-        <v>153.4466666666667</v>
+        <v>153.4116666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>154.1</v>
       </c>
       <c r="C21" t="n">
-        <v>153.7</v>
+        <v>154.1</v>
       </c>
       <c r="D21" t="n">
         <v>154.1</v>
       </c>
       <c r="E21" t="n">
-        <v>153.7</v>
+        <v>154.1</v>
       </c>
       <c r="F21" t="n">
-        <v>9828.069600000001</v>
+        <v>38073</v>
       </c>
       <c r="G21" t="n">
-        <v>153.4716666666667</v>
+        <v>153.4466666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>154</v>
+        <v>154.1</v>
       </c>
       <c r="C22" t="n">
-        <v>154.3</v>
+        <v>153.7</v>
       </c>
       <c r="D22" t="n">
-        <v>154.3</v>
+        <v>154.1</v>
       </c>
       <c r="E22" t="n">
-        <v>154</v>
+        <v>153.7</v>
       </c>
       <c r="F22" t="n">
-        <v>912.1307</v>
+        <v>9828.069600000001</v>
       </c>
       <c r="G22" t="n">
-        <v>153.5183333333334</v>
+        <v>153.4716666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>153.3</v>
+        <v>154</v>
       </c>
       <c r="C23" t="n">
-        <v>154.6</v>
+        <v>154.3</v>
       </c>
       <c r="D23" t="n">
-        <v>154.6</v>
+        <v>154.3</v>
       </c>
       <c r="E23" t="n">
-        <v>153.2</v>
+        <v>154</v>
       </c>
       <c r="F23" t="n">
-        <v>600.9688</v>
+        <v>912.1307</v>
       </c>
       <c r="G23" t="n">
-        <v>153.5316666666667</v>
+        <v>153.5183333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>153.3</v>
+      </c>
+      <c r="C24" t="n">
         <v>154.6</v>
       </c>
-      <c r="C24" t="n">
-        <v>155</v>
-      </c>
       <c r="D24" t="n">
-        <v>155</v>
+        <v>154.6</v>
       </c>
       <c r="E24" t="n">
-        <v>154.6</v>
+        <v>153.2</v>
       </c>
       <c r="F24" t="n">
-        <v>2015.185</v>
+        <v>600.9688</v>
       </c>
       <c r="G24" t="n">
-        <v>153.5566666666667</v>
+        <v>153.5316666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>154.4</v>
+        <v>154.6</v>
       </c>
       <c r="C25" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="D25" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="E25" t="n">
-        <v>153.4</v>
+        <v>154.6</v>
       </c>
       <c r="F25" t="n">
-        <v>30551.6227</v>
+        <v>2015.185</v>
       </c>
       <c r="G25" t="n">
-        <v>153.58</v>
+        <v>153.5566666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>154.9</v>
+        <v>154.4</v>
       </c>
       <c r="C26" t="n">
         <v>154.9</v>
@@ -1282,13 +1282,13 @@
         <v>154.9</v>
       </c>
       <c r="E26" t="n">
-        <v>154.9</v>
+        <v>153.4</v>
       </c>
       <c r="F26" t="n">
-        <v>227.1399</v>
+        <v>30551.6227</v>
       </c>
       <c r="G26" t="n">
-        <v>153.6300000000001</v>
+        <v>153.58</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>154.8</v>
+        <v>154.9</v>
       </c>
       <c r="C27" t="n">
-        <v>154.8</v>
+        <v>154.9</v>
       </c>
       <c r="D27" t="n">
-        <v>154.8</v>
+        <v>154.9</v>
       </c>
       <c r="E27" t="n">
-        <v>154.8</v>
+        <v>154.9</v>
       </c>
       <c r="F27" t="n">
-        <v>5334.2138</v>
+        <v>227.1399</v>
       </c>
       <c r="G27" t="n">
-        <v>153.6550000000001</v>
+        <v>153.6300000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>155</v>
+        <v>154.8</v>
       </c>
       <c r="C28" t="n">
-        <v>155.3</v>
+        <v>154.8</v>
       </c>
       <c r="D28" t="n">
-        <v>155.3</v>
+        <v>154.8</v>
       </c>
       <c r="E28" t="n">
-        <v>155</v>
+        <v>154.8</v>
       </c>
       <c r="F28" t="n">
-        <v>454.0705363225807</v>
+        <v>5334.2138</v>
       </c>
       <c r="G28" t="n">
-        <v>153.7266666666667</v>
+        <v>153.6550000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>155.3</v>
+        <v>155</v>
       </c>
       <c r="C29" t="n">
         <v>155.3</v>
@@ -1387,13 +1387,13 @@
         <v>155.3</v>
       </c>
       <c r="E29" t="n">
-        <v>155.3</v>
+        <v>155</v>
       </c>
       <c r="F29" t="n">
-        <v>924.6042</v>
+        <v>454.0705363225807</v>
       </c>
       <c r="G29" t="n">
-        <v>153.7683333333334</v>
+        <v>153.7266666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>155.9</v>
+        <v>155.3</v>
       </c>
       <c r="C30" t="n">
-        <v>156.1</v>
+        <v>155.3</v>
       </c>
       <c r="D30" t="n">
-        <v>156.1</v>
+        <v>155.3</v>
       </c>
       <c r="E30" t="n">
-        <v>153.5</v>
+        <v>155.3</v>
       </c>
       <c r="F30" t="n">
-        <v>50296.6824</v>
+        <v>924.6042</v>
       </c>
       <c r="G30" t="n">
-        <v>153.8033333333334</v>
+        <v>153.7683333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>155.1</v>
+        <v>155.9</v>
       </c>
       <c r="C31" t="n">
-        <v>155.9</v>
+        <v>156.1</v>
       </c>
       <c r="D31" t="n">
-        <v>156</v>
+        <v>156.1</v>
       </c>
       <c r="E31" t="n">
-        <v>155</v>
+        <v>153.5</v>
       </c>
       <c r="F31" t="n">
-        <v>741</v>
+        <v>50296.6824</v>
       </c>
       <c r="G31" t="n">
-        <v>153.835</v>
+        <v>153.8033333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>156.1</v>
+        <v>155.1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.1</v>
+        <v>155.9</v>
       </c>
       <c r="D32" t="n">
-        <v>156.1</v>
+        <v>156</v>
       </c>
       <c r="E32" t="n">
-        <v>156.1</v>
+        <v>155</v>
       </c>
       <c r="F32" t="n">
-        <v>389.8735</v>
+        <v>741</v>
       </c>
       <c r="G32" t="n">
-        <v>153.87</v>
+        <v>153.835</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>156.1</v>
       </c>
       <c r="C33" t="n">
-        <v>156</v>
+        <v>156.1</v>
       </c>
       <c r="D33" t="n">
         <v>156.1</v>
       </c>
       <c r="E33" t="n">
-        <v>154</v>
+        <v>156.1</v>
       </c>
       <c r="F33" t="n">
-        <v>7280.5783</v>
+        <v>389.8735</v>
       </c>
       <c r="G33" t="n">
-        <v>153.9083333333334</v>
+        <v>153.87</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>156</v>
+        <v>156.1</v>
       </c>
       <c r="C34" t="n">
         <v>156</v>
       </c>
       <c r="D34" t="n">
-        <v>156</v>
+        <v>156.1</v>
       </c>
       <c r="E34" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F34" t="n">
-        <v>1289.01</v>
+        <v>7280.5783</v>
       </c>
       <c r="G34" t="n">
-        <v>153.9466666666667</v>
+        <v>153.9083333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>156.1</v>
+        <v>156</v>
       </c>
       <c r="C35" t="n">
-        <v>156.1</v>
+        <v>156</v>
       </c>
       <c r="D35" t="n">
-        <v>156.1</v>
+        <v>156</v>
       </c>
       <c r="E35" t="n">
-        <v>156.1</v>
+        <v>156</v>
       </c>
       <c r="F35" t="n">
-        <v>84.42489999999999</v>
+        <v>1289.01</v>
       </c>
       <c r="G35" t="n">
-        <v>154.005</v>
+        <v>153.9466666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>154.1</v>
+        <v>156.1</v>
       </c>
       <c r="C36" t="n">
-        <v>155.8</v>
+        <v>156.1</v>
       </c>
       <c r="D36" t="n">
-        <v>155.9</v>
+        <v>156.1</v>
       </c>
       <c r="E36" t="n">
-        <v>153.5</v>
+        <v>156.1</v>
       </c>
       <c r="F36" t="n">
-        <v>55207.6598</v>
+        <v>84.42489999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>154.045</v>
+        <v>154.005</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>154</v>
+        <v>154.1</v>
       </c>
       <c r="C37" t="n">
-        <v>154.8</v>
+        <v>155.8</v>
       </c>
       <c r="D37" t="n">
-        <v>154.9</v>
+        <v>155.9</v>
       </c>
       <c r="E37" t="n">
-        <v>154</v>
+        <v>153.5</v>
       </c>
       <c r="F37" t="n">
-        <v>1706.385</v>
+        <v>55207.6598</v>
       </c>
       <c r="G37" t="n">
-        <v>154.08</v>
+        <v>154.045</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>154</v>
+      </c>
+      <c r="C38" t="n">
         <v>154.8</v>
-      </c>
-      <c r="C38" t="n">
-        <v>154.5</v>
       </c>
       <c r="D38" t="n">
         <v>154.9</v>
       </c>
       <c r="E38" t="n">
-        <v>154.5</v>
+        <v>154</v>
       </c>
       <c r="F38" t="n">
-        <v>4800</v>
+        <v>1706.385</v>
       </c>
       <c r="G38" t="n">
-        <v>154.09</v>
+        <v>154.08</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>154.9</v>
+        <v>154.8</v>
       </c>
       <c r="C39" t="n">
-        <v>154</v>
+        <v>154.5</v>
       </c>
       <c r="D39" t="n">
         <v>154.9</v>
       </c>
       <c r="E39" t="n">
-        <v>153.1</v>
+        <v>154.5</v>
       </c>
       <c r="F39" t="n">
-        <v>7214.325</v>
+        <v>4800</v>
       </c>
       <c r="G39" t="n">
-        <v>154.1066666666667</v>
+        <v>154.09</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>154</v>
+        <v>154.9</v>
       </c>
       <c r="C40" t="n">
         <v>154</v>
       </c>
       <c r="D40" t="n">
-        <v>154</v>
+        <v>154.9</v>
       </c>
       <c r="E40" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="F40" t="n">
-        <v>6646.3025</v>
+        <v>7214.325</v>
       </c>
       <c r="G40" t="n">
-        <v>154.1216666666666</v>
+        <v>154.1066666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>154</v>
       </c>
       <c r="F41" t="n">
-        <v>2373.81</v>
+        <v>6646.3025</v>
       </c>
       <c r="G41" t="n">
-        <v>154.1033333333333</v>
+        <v>154.1216666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>154</v>
       </c>
       <c r="C42" t="n">
-        <v>153.2</v>
+        <v>154</v>
       </c>
       <c r="D42" t="n">
         <v>154</v>
       </c>
       <c r="E42" t="n">
-        <v>153.2</v>
+        <v>154</v>
       </c>
       <c r="F42" t="n">
-        <v>2120.165</v>
+        <v>2373.81</v>
       </c>
       <c r="G42" t="n">
-        <v>154.0916666666667</v>
+        <v>154.1033333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>153.7</v>
+        <v>154</v>
       </c>
       <c r="C43" t="n">
-        <v>153.7</v>
+        <v>153.2</v>
       </c>
       <c r="D43" t="n">
-        <v>153.7</v>
+        <v>154</v>
       </c>
       <c r="E43" t="n">
-        <v>153.7</v>
+        <v>153.2</v>
       </c>
       <c r="F43" t="n">
-        <v>6931.7765</v>
+        <v>2120.165</v>
       </c>
       <c r="G43" t="n">
-        <v>154.0883333333333</v>
+        <v>154.0916666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>153.7</v>
       </c>
       <c r="F44" t="n">
-        <v>19737.8295</v>
+        <v>6931.7765</v>
       </c>
       <c r="G44" t="n">
-        <v>154.0666666666667</v>
+        <v>154.0883333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>153.1</v>
+        <v>153.7</v>
       </c>
       <c r="C45" t="n">
-        <v>153</v>
+        <v>153.7</v>
       </c>
       <c r="D45" t="n">
-        <v>153.1</v>
+        <v>153.7</v>
       </c>
       <c r="E45" t="n">
-        <v>153</v>
+        <v>153.7</v>
       </c>
       <c r="F45" t="n">
-        <v>4794.4789</v>
+        <v>19737.8295</v>
       </c>
       <c r="G45" t="n">
-        <v>154.0333333333334</v>
+        <v>154.0666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>152.9</v>
+        <v>153.1</v>
       </c>
       <c r="C46" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="D46" t="n">
-        <v>152.9</v>
+        <v>153.1</v>
       </c>
       <c r="E46" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="F46" t="n">
-        <v>493.02</v>
+        <v>4794.4789</v>
       </c>
       <c r="G46" t="n">
-        <v>154.0116666666667</v>
+        <v>154.0333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>152.9</v>
       </c>
       <c r="F47" t="n">
-        <v>12166.82</v>
+        <v>493.02</v>
       </c>
       <c r="G47" t="n">
-        <v>153.9933333333333</v>
+        <v>154.0116666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>152.9</v>
       </c>
       <c r="F48" t="n">
-        <v>7002</v>
+        <v>12166.82</v>
       </c>
       <c r="G48" t="n">
-        <v>153.975</v>
+        <v>153.9933333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>152.7</v>
+        <v>152.9</v>
       </c>
       <c r="C49" t="n">
         <v>152.9</v>
@@ -2087,13 +2087,13 @@
         <v>152.9</v>
       </c>
       <c r="E49" t="n">
-        <v>152.7</v>
+        <v>152.9</v>
       </c>
       <c r="F49" t="n">
-        <v>8692</v>
+        <v>7002</v>
       </c>
       <c r="G49" t="n">
-        <v>153.94</v>
+        <v>153.975</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>152.9</v>
+        <v>152.7</v>
       </c>
       <c r="C50" t="n">
         <v>152.9</v>
@@ -2122,13 +2122,13 @@
         <v>152.9</v>
       </c>
       <c r="E50" t="n">
-        <v>152.9</v>
+        <v>152.7</v>
       </c>
       <c r="F50" t="n">
-        <v>18303</v>
+        <v>8692</v>
       </c>
       <c r="G50" t="n">
-        <v>153.9216666666667</v>
+        <v>153.94</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>152.9</v>
       </c>
       <c r="F51" t="n">
-        <v>4075</v>
+        <v>18303</v>
       </c>
       <c r="G51" t="n">
-        <v>153.9166666666666</v>
+        <v>153.9216666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>152.9</v>
       </c>
       <c r="F52" t="n">
-        <v>27188.5399</v>
+        <v>4075</v>
       </c>
       <c r="G52" t="n">
-        <v>153.915</v>
+        <v>153.9166666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>152.9</v>
       </c>
       <c r="F53" t="n">
-        <v>78002.8363</v>
+        <v>27188.5399</v>
       </c>
       <c r="G53" t="n">
         <v>153.915</v>
@@ -2256,19 +2256,19 @@
         <v>152.9</v>
       </c>
       <c r="C54" t="n">
-        <v>151.5</v>
+        <v>152.9</v>
       </c>
       <c r="D54" t="n">
         <v>152.9</v>
       </c>
       <c r="E54" t="n">
-        <v>151.5</v>
+        <v>152.9</v>
       </c>
       <c r="F54" t="n">
-        <v>12998.6447</v>
+        <v>78002.8363</v>
       </c>
       <c r="G54" t="n">
-        <v>153.9033333333333</v>
+        <v>153.915</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>152.9</v>
       </c>
       <c r="C55" t="n">
-        <v>154.2</v>
+        <v>151.5</v>
       </c>
       <c r="D55" t="n">
-        <v>154.2</v>
+        <v>152.9</v>
       </c>
       <c r="E55" t="n">
-        <v>152.9</v>
+        <v>151.5</v>
       </c>
       <c r="F55" t="n">
-        <v>53810</v>
+        <v>12998.6447</v>
       </c>
       <c r="G55" t="n">
-        <v>153.9366666666666</v>
+        <v>153.9033333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="C56" t="n">
         <v>154.2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>152.5</v>
       </c>
       <c r="D56" t="n">
         <v>154.2</v>
       </c>
       <c r="E56" t="n">
-        <v>152.5</v>
+        <v>152.9</v>
       </c>
       <c r="F56" t="n">
-        <v>1000.6054</v>
+        <v>53810</v>
       </c>
       <c r="G56" t="n">
-        <v>153.9416666666666</v>
+        <v>153.9366666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>152</v>
+        <v>154.2</v>
       </c>
       <c r="C57" t="n">
-        <v>151</v>
+        <v>152.5</v>
       </c>
       <c r="D57" t="n">
-        <v>152</v>
+        <v>154.2</v>
       </c>
       <c r="E57" t="n">
-        <v>151</v>
+        <v>152.5</v>
       </c>
       <c r="F57" t="n">
-        <v>2242.8595</v>
+        <v>1000.6054</v>
       </c>
       <c r="G57" t="n">
-        <v>153.9249999999999</v>
+        <v>153.9416666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C58" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E58" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F58" t="n">
-        <v>103.844</v>
+        <v>2242.8595</v>
       </c>
       <c r="G58" t="n">
-        <v>153.8783333333333</v>
+        <v>153.9249999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>150</v>
       </c>
       <c r="F59" t="n">
-        <v>19948.9838</v>
+        <v>103.844</v>
       </c>
       <c r="G59" t="n">
-        <v>153.8216666666666</v>
+        <v>153.8783333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>149.9</v>
+        <v>150</v>
       </c>
       <c r="C60" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60" t="n">
-        <v>149.9</v>
+        <v>150</v>
       </c>
       <c r="E60" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F60" t="n">
-        <v>5011.76</v>
+        <v>19948.9838</v>
       </c>
       <c r="G60" t="n">
-        <v>153.7466666666666</v>
+        <v>153.8216666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="C61" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="E61" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" t="n">
-        <v>226</v>
+        <v>5011.76</v>
       </c>
       <c r="G61" t="n">
-        <v>153.6883333333333</v>
+        <v>153.7466666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,19 +2545,23 @@
         <v>150</v>
       </c>
       <c r="F62" t="n">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G62" t="n">
-        <v>153.63</v>
+        <v>153.6883333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>149</v>
+      </c>
+      <c r="K62" t="n">
+        <v>149</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2574,26 +2578,34 @@
         <v>150</v>
       </c>
       <c r="D63" t="n">
-        <v>150.6</v>
+        <v>150</v>
       </c>
       <c r="E63" t="n">
         <v>150</v>
       </c>
       <c r="F63" t="n">
-        <v>17629.2771</v>
+        <v>209</v>
       </c>
       <c r="G63" t="n">
-        <v>153.5466666666666</v>
+        <v>153.63</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>150</v>
+      </c>
+      <c r="K63" t="n">
+        <v>149</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,32 +2615,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>151.9</v>
+        <v>150</v>
       </c>
       <c r="C64" t="n">
-        <v>151.9</v>
+        <v>150</v>
       </c>
       <c r="D64" t="n">
-        <v>151.9</v>
+        <v>150.6</v>
       </c>
       <c r="E64" t="n">
-        <v>151.9</v>
+        <v>150</v>
       </c>
       <c r="F64" t="n">
-        <v>305.9407</v>
+        <v>17629.2771</v>
       </c>
       <c r="G64" t="n">
-        <v>153.4983333333333</v>
+        <v>153.5466666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>150</v>
+      </c>
+      <c r="K64" t="n">
+        <v>149</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,31 +2658,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>151.6</v>
+        <v>151.9</v>
       </c>
       <c r="C65" t="n">
-        <v>151.6</v>
+        <v>151.9</v>
       </c>
       <c r="D65" t="n">
-        <v>151.6</v>
+        <v>151.9</v>
       </c>
       <c r="E65" t="n">
-        <v>151.6</v>
+        <v>151.9</v>
       </c>
       <c r="F65" t="n">
-        <v>950</v>
+        <v>305.9407</v>
       </c>
       <c r="G65" t="n">
-        <v>153.445</v>
+        <v>153.4983333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>150</v>
+      </c>
+      <c r="K65" t="n">
+        <v>150</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2673,32 +2697,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>950</v>
+      </c>
+      <c r="G66" t="n">
+        <v>153.445</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>151.9</v>
       </c>
-      <c r="C66" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="E66" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2347.2862</v>
-      </c>
-      <c r="G66" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>150</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2711,19 +2743,19 @@
         <v>151.9</v>
       </c>
       <c r="C67" t="n">
-        <v>151.9</v>
+        <v>152.2</v>
       </c>
       <c r="D67" t="n">
-        <v>151.9</v>
+        <v>152.2</v>
       </c>
       <c r="E67" t="n">
         <v>151.8</v>
       </c>
       <c r="F67" t="n">
-        <v>1253.5644</v>
+        <v>2347.2862</v>
       </c>
       <c r="G67" t="n">
-        <v>153.35</v>
+        <v>153.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2764,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>150</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2746,19 +2784,19 @@
         <v>151.9</v>
       </c>
       <c r="C68" t="n">
-        <v>152.1</v>
+        <v>151.9</v>
       </c>
       <c r="D68" t="n">
-        <v>152.1</v>
+        <v>151.9</v>
       </c>
       <c r="E68" t="n">
-        <v>151.5</v>
+        <v>151.8</v>
       </c>
       <c r="F68" t="n">
-        <v>2784.6955</v>
+        <v>1253.5644</v>
       </c>
       <c r="G68" t="n">
-        <v>153.3016666666667</v>
+        <v>153.35</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2816,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>152.2</v>
+        <v>151.9</v>
       </c>
       <c r="C69" t="n">
-        <v>152.2</v>
+        <v>152.1</v>
       </c>
       <c r="D69" t="n">
-        <v>152.2</v>
+        <v>152.1</v>
       </c>
       <c r="E69" t="n">
-        <v>152.2</v>
+        <v>151.5</v>
       </c>
       <c r="F69" t="n">
-        <v>548.3758</v>
+        <v>2784.6955</v>
       </c>
       <c r="G69" t="n">
-        <v>153.27</v>
+        <v>153.3016666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2851,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>152.1</v>
+        <v>152.2</v>
       </c>
       <c r="C70" t="n">
-        <v>150.7</v>
+        <v>152.2</v>
       </c>
       <c r="D70" t="n">
-        <v>152.1</v>
+        <v>152.2</v>
       </c>
       <c r="E70" t="n">
-        <v>150.7</v>
+        <v>152.2</v>
       </c>
       <c r="F70" t="n">
-        <v>527.3495</v>
+        <v>548.3758</v>
       </c>
       <c r="G70" t="n">
-        <v>153.2316666666667</v>
+        <v>153.27</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,29 +2889,35 @@
         <v>152.1</v>
       </c>
       <c r="C71" t="n">
-        <v>152</v>
+        <v>150.7</v>
       </c>
       <c r="D71" t="n">
         <v>152.1</v>
       </c>
       <c r="E71" t="n">
-        <v>152</v>
+        <v>150.7</v>
       </c>
       <c r="F71" t="n">
-        <v>2372.7988</v>
+        <v>527.3495</v>
       </c>
       <c r="G71" t="n">
-        <v>153.215</v>
+        <v>153.2316666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>152.2</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2927,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>151.9</v>
+        <v>152.1</v>
       </c>
       <c r="C72" t="n">
-        <v>152.2</v>
+        <v>152</v>
       </c>
       <c r="D72" t="n">
-        <v>152.2</v>
+        <v>152.1</v>
       </c>
       <c r="E72" t="n">
-        <v>151.9</v>
+        <v>152</v>
       </c>
       <c r="F72" t="n">
-        <v>2480.3475</v>
+        <v>2372.7988</v>
       </c>
       <c r="G72" t="n">
-        <v>153.2016666666667</v>
+        <v>153.215</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +2952,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,32 +2966,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>152.3</v>
+        <v>151.9</v>
       </c>
       <c r="C73" t="n">
-        <v>153.7</v>
+        <v>152.2</v>
       </c>
       <c r="D73" t="n">
-        <v>153.7</v>
+        <v>152.2</v>
       </c>
       <c r="E73" t="n">
-        <v>152.3</v>
+        <v>151.9</v>
       </c>
       <c r="F73" t="n">
-        <v>3085.03</v>
+        <v>2480.3475</v>
       </c>
       <c r="G73" t="n">
-        <v>153.2400000000001</v>
+        <v>153.2016666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>152</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3007,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>153.8</v>
+        <v>152.3</v>
       </c>
       <c r="C74" t="n">
-        <v>154.4</v>
+        <v>153.7</v>
       </c>
       <c r="D74" t="n">
-        <v>154.4</v>
+        <v>153.7</v>
       </c>
       <c r="E74" t="n">
-        <v>153.8</v>
+        <v>152.3</v>
       </c>
       <c r="F74" t="n">
-        <v>4120.3913</v>
+        <v>3085.03</v>
       </c>
       <c r="G74" t="n">
-        <v>153.2916666666667</v>
+        <v>153.2400000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3032,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3046,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="C75" t="n">
         <v>154.4</v>
       </c>
-      <c r="C75" t="n">
-        <v>154.5</v>
-      </c>
       <c r="D75" t="n">
-        <v>154.5</v>
+        <v>154.4</v>
       </c>
       <c r="E75" t="n">
-        <v>154.4</v>
+        <v>153.8</v>
       </c>
       <c r="F75" t="n">
-        <v>4163.3488</v>
+        <v>4120.3913</v>
       </c>
       <c r="G75" t="n">
-        <v>153.3183333333334</v>
+        <v>153.2916666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3071,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3085,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>155.5</v>
+        <v>154.4</v>
       </c>
       <c r="C76" t="n">
-        <v>155.5</v>
+        <v>154.5</v>
       </c>
       <c r="D76" t="n">
-        <v>155.5</v>
+        <v>154.5</v>
       </c>
       <c r="E76" t="n">
-        <v>155.5</v>
+        <v>154.4</v>
       </c>
       <c r="F76" t="n">
-        <v>469.2287</v>
+        <v>4163.3488</v>
       </c>
       <c r="G76" t="n">
-        <v>153.3600000000001</v>
+        <v>153.3183333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3110,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3061,19 +3127,19 @@
         <v>155.5</v>
       </c>
       <c r="C77" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="D77" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="E77" t="n">
         <v>155.5</v>
       </c>
       <c r="F77" t="n">
-        <v>615.8323</v>
+        <v>469.2287</v>
       </c>
       <c r="G77" t="n">
-        <v>153.3833333333334</v>
+        <v>153.3600000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3149,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3096,19 +3166,19 @@
         <v>155.5</v>
       </c>
       <c r="C78" t="n">
-        <v>155.4</v>
+        <v>155.6</v>
       </c>
       <c r="D78" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="E78" t="n">
         <v>155.5</v>
       </c>
-      <c r="E78" t="n">
-        <v>155.4</v>
-      </c>
       <c r="F78" t="n">
-        <v>954.4184</v>
+        <v>615.8323</v>
       </c>
       <c r="G78" t="n">
-        <v>153.42</v>
+        <v>153.3833333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3188,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,10 +3202,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="C79" t="n">
         <v>155.4</v>
-      </c>
-      <c r="C79" t="n">
-        <v>155.5</v>
       </c>
       <c r="D79" t="n">
         <v>155.5</v>
@@ -3140,10 +3214,10 @@
         <v>155.4</v>
       </c>
       <c r="F79" t="n">
-        <v>1943.8645</v>
+        <v>954.4184</v>
       </c>
       <c r="G79" t="n">
-        <v>153.4433333333334</v>
+        <v>153.42</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3227,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3241,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>155.1</v>
+        <v>155.4</v>
       </c>
       <c r="C80" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="D80" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="E80" t="n">
-        <v>155.1</v>
+        <v>155.4</v>
       </c>
       <c r="F80" t="n">
-        <v>5662.5687</v>
+        <v>1943.8645</v>
       </c>
       <c r="G80" t="n">
-        <v>153.4683333333334</v>
+        <v>153.4433333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3266,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3280,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>154.1</v>
+        <v>155.1</v>
       </c>
       <c r="C81" t="n">
-        <v>154.1</v>
+        <v>155.6</v>
       </c>
       <c r="D81" t="n">
-        <v>154.1</v>
+        <v>155.6</v>
       </c>
       <c r="E81" t="n">
-        <v>154.1</v>
+        <v>155.1</v>
       </c>
       <c r="F81" t="n">
-        <v>16385.6706</v>
+        <v>5662.5687</v>
       </c>
       <c r="G81" t="n">
-        <v>153.475</v>
+        <v>153.4683333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3305,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3331,10 @@
         <v>154.1</v>
       </c>
       <c r="F82" t="n">
-        <v>13065.0956</v>
+        <v>16385.6706</v>
       </c>
       <c r="G82" t="n">
-        <v>153.4716666666667</v>
+        <v>153.475</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3344,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3370,10 @@
         <v>154.1</v>
       </c>
       <c r="F83" t="n">
-        <v>375</v>
+        <v>13065.0956</v>
       </c>
       <c r="G83" t="n">
-        <v>153.4633333333334</v>
+        <v>153.4716666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3383,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,7 +3397,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>152.3</v>
+        <v>154.1</v>
       </c>
       <c r="C84" t="n">
         <v>154.1</v>
@@ -3312,13 +3406,13 @@
         <v>154.1</v>
       </c>
       <c r="E84" t="n">
-        <v>152.3</v>
+        <v>154.1</v>
       </c>
       <c r="F84" t="n">
-        <v>36529.9225</v>
+        <v>375</v>
       </c>
       <c r="G84" t="n">
-        <v>153.4483333333334</v>
+        <v>153.4633333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3422,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3436,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="C85" t="n">
         <v>154.1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>153.9</v>
       </c>
       <c r="D85" t="n">
         <v>154.1</v>
       </c>
       <c r="E85" t="n">
-        <v>152.9</v>
+        <v>152.3</v>
       </c>
       <c r="F85" t="n">
-        <v>6530.31</v>
+        <v>36529.9225</v>
       </c>
       <c r="G85" t="n">
-        <v>153.4316666666667</v>
+        <v>153.4483333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3461,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3475,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="C86" t="n">
         <v>153.9</v>
-      </c>
-      <c r="C86" t="n">
-        <v>154.1</v>
       </c>
       <c r="D86" t="n">
         <v>154.1</v>
       </c>
       <c r="E86" t="n">
-        <v>153.9</v>
+        <v>152.9</v>
       </c>
       <c r="F86" t="n">
-        <v>5669</v>
+        <v>6530.31</v>
       </c>
       <c r="G86" t="n">
-        <v>153.4183333333334</v>
+        <v>153.4316666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3500,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3514,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="C87" t="n">
         <v>154.1</v>
       </c>
-      <c r="C87" t="n">
-        <v>155.2</v>
-      </c>
       <c r="D87" t="n">
-        <v>155.2</v>
+        <v>154.1</v>
       </c>
       <c r="E87" t="n">
-        <v>154.1</v>
+        <v>153.9</v>
       </c>
       <c r="F87" t="n">
-        <v>610</v>
+        <v>5669</v>
       </c>
       <c r="G87" t="n">
-        <v>153.4250000000001</v>
+        <v>153.4183333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3539,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3553,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>155.3</v>
+        <v>154.1</v>
       </c>
       <c r="C88" t="n">
         <v>155.2</v>
       </c>
       <c r="D88" t="n">
-        <v>155.3</v>
+        <v>155.2</v>
       </c>
       <c r="E88" t="n">
-        <v>155.2</v>
+        <v>154.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2366.907</v>
+        <v>610</v>
       </c>
       <c r="G88" t="n">
-        <v>153.4233333333335</v>
+        <v>153.4250000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3578,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3481,16 +3595,16 @@
         <v>155.3</v>
       </c>
       <c r="C89" t="n">
-        <v>155.3</v>
+        <v>155.2</v>
       </c>
       <c r="D89" t="n">
         <v>155.3</v>
       </c>
       <c r="E89" t="n">
-        <v>155.3</v>
+        <v>155.2</v>
       </c>
       <c r="F89" t="n">
-        <v>714.2142</v>
+        <v>2366.907</v>
       </c>
       <c r="G89" t="n">
         <v>153.4233333333335</v>
@@ -3503,7 +3617,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3516,19 +3634,19 @@
         <v>155.3</v>
       </c>
       <c r="C90" t="n">
-        <v>155.2</v>
+        <v>155.3</v>
       </c>
       <c r="D90" t="n">
         <v>155.3</v>
       </c>
       <c r="E90" t="n">
-        <v>155.2</v>
+        <v>155.3</v>
       </c>
       <c r="F90" t="n">
-        <v>5009.4528</v>
+        <v>714.2142</v>
       </c>
       <c r="G90" t="n">
-        <v>153.4083333333334</v>
+        <v>153.4233333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3656,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3551,19 +3673,19 @@
         <v>155.3</v>
       </c>
       <c r="C91" t="n">
-        <v>153.4</v>
+        <v>155.2</v>
       </c>
       <c r="D91" t="n">
         <v>155.3</v>
       </c>
       <c r="E91" t="n">
-        <v>153.4</v>
+        <v>155.2</v>
       </c>
       <c r="F91" t="n">
-        <v>12762.6618</v>
+        <v>5009.4528</v>
       </c>
       <c r="G91" t="n">
-        <v>153.3666666666668</v>
+        <v>153.4083333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3695,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3586,19 +3712,19 @@
         <v>155.3</v>
       </c>
       <c r="C92" t="n">
-        <v>155.2</v>
+        <v>153.4</v>
       </c>
       <c r="D92" t="n">
         <v>155.3</v>
       </c>
       <c r="E92" t="n">
-        <v>155.2</v>
+        <v>153.4</v>
       </c>
       <c r="F92" t="n">
-        <v>2416.558</v>
+        <v>12762.6618</v>
       </c>
       <c r="G92" t="n">
-        <v>153.3516666666668</v>
+        <v>153.3666666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3734,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>155.4</v>
+        <v>155.3</v>
       </c>
       <c r="C93" t="n">
-        <v>155.4</v>
+        <v>155.2</v>
       </c>
       <c r="D93" t="n">
-        <v>155.5</v>
+        <v>155.3</v>
       </c>
       <c r="E93" t="n">
-        <v>155.4</v>
+        <v>155.2</v>
       </c>
       <c r="F93" t="n">
-        <v>810.2430000000001</v>
+        <v>2416.558</v>
       </c>
       <c r="G93" t="n">
-        <v>153.3416666666668</v>
+        <v>153.3516666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3773,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3787,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="C94" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="D94" t="n">
         <v>155.5</v>
       </c>
       <c r="E94" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="F94" t="n">
-        <v>295.0885</v>
+        <v>810.2430000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>153.3333333333335</v>
+        <v>153.3416666666668</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3812,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3697,13 +3835,13 @@
         <v>155.5</v>
       </c>
       <c r="E95" t="n">
-        <v>155.4</v>
+        <v>155.5</v>
       </c>
       <c r="F95" t="n">
-        <v>4599.3297</v>
+        <v>295.0885</v>
       </c>
       <c r="G95" t="n">
-        <v>153.3233333333334</v>
+        <v>153.3333333333335</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3851,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3865,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="C96" t="n">
         <v>155.5</v>
       </c>
       <c r="D96" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="E96" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="F96" t="n">
-        <v>2115.9547</v>
+        <v>4599.3297</v>
       </c>
       <c r="G96" t="n">
-        <v>153.3183333333335</v>
+        <v>153.3233333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3890,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3761,19 +3907,19 @@
         <v>155.6</v>
       </c>
       <c r="C97" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="D97" t="n">
         <v>155.6</v>
       </c>
       <c r="E97" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="F97" t="n">
-        <v>2025.6521</v>
+        <v>2115.9547</v>
       </c>
       <c r="G97" t="n">
-        <v>153.3316666666668</v>
+        <v>153.3183333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3929,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +3955,10 @@
         <v>155.6</v>
       </c>
       <c r="F98" t="n">
-        <v>625</v>
+        <v>2025.6521</v>
       </c>
       <c r="G98" t="n">
-        <v>153.3500000000002</v>
+        <v>153.3316666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +3968,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +3994,10 @@
         <v>155.6</v>
       </c>
       <c r="F99" t="n">
-        <v>1850</v>
+        <v>625</v>
       </c>
       <c r="G99" t="n">
-        <v>153.3766666666668</v>
+        <v>153.3500000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4007,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3866,19 +4024,19 @@
         <v>155.6</v>
       </c>
       <c r="C100" t="n">
-        <v>156.3</v>
+        <v>155.6</v>
       </c>
       <c r="D100" t="n">
-        <v>156.3</v>
+        <v>155.6</v>
       </c>
       <c r="E100" t="n">
         <v>155.6</v>
       </c>
       <c r="F100" t="n">
-        <v>3388</v>
+        <v>1850</v>
       </c>
       <c r="G100" t="n">
-        <v>153.4150000000001</v>
+        <v>153.3766666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4046,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4060,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="C101" t="n">
         <v>156.3</v>
       </c>
-      <c r="C101" t="n">
-        <v>156.9</v>
-      </c>
       <c r="D101" t="n">
-        <v>156.9</v>
+        <v>156.3</v>
       </c>
       <c r="E101" t="n">
-        <v>156.3</v>
+        <v>155.6</v>
       </c>
       <c r="F101" t="n">
-        <v>125</v>
+        <v>3388</v>
       </c>
       <c r="G101" t="n">
-        <v>153.4633333333335</v>
+        <v>153.4150000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4085,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4099,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>157</v>
+        <v>156.3</v>
       </c>
       <c r="C102" t="n">
-        <v>157</v>
+        <v>156.9</v>
       </c>
       <c r="D102" t="n">
-        <v>157</v>
+        <v>156.9</v>
       </c>
       <c r="E102" t="n">
-        <v>157</v>
+        <v>156.3</v>
       </c>
       <c r="F102" t="n">
-        <v>539.1617</v>
+        <v>125</v>
       </c>
       <c r="G102" t="n">
-        <v>153.5266666666668</v>
+        <v>153.4633333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4124,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3971,19 +4141,19 @@
         <v>157</v>
       </c>
       <c r="C103" t="n">
-        <v>157.5</v>
+        <v>157</v>
       </c>
       <c r="D103" t="n">
-        <v>157.5</v>
+        <v>157</v>
       </c>
       <c r="E103" t="n">
         <v>157</v>
       </c>
       <c r="F103" t="n">
-        <v>4166.2121</v>
+        <v>539.1617</v>
       </c>
       <c r="G103" t="n">
-        <v>153.5900000000001</v>
+        <v>153.5266666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4163,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,7 +4177,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>157.5</v>
+        <v>157</v>
       </c>
       <c r="C104" t="n">
         <v>157.5</v>
@@ -4012,13 +4186,13 @@
         <v>157.5</v>
       </c>
       <c r="E104" t="n">
-        <v>157.5</v>
+        <v>157</v>
       </c>
       <c r="F104" t="n">
-        <v>838.5017</v>
+        <v>4166.2121</v>
       </c>
       <c r="G104" t="n">
-        <v>153.6533333333334</v>
+        <v>153.5900000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4202,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4216,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>158</v>
+        <v>157.5</v>
       </c>
       <c r="C105" t="n">
-        <v>156.3</v>
+        <v>157.5</v>
       </c>
       <c r="D105" t="n">
-        <v>158</v>
+        <v>157.5</v>
       </c>
       <c r="E105" t="n">
-        <v>156.3</v>
+        <v>157.5</v>
       </c>
       <c r="F105" t="n">
-        <v>700</v>
+        <v>838.5017</v>
       </c>
       <c r="G105" t="n">
-        <v>153.7083333333334</v>
+        <v>153.6533333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4241,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4076,19 +4258,19 @@
         <v>158</v>
       </c>
       <c r="C106" t="n">
-        <v>158.5</v>
+        <v>156.3</v>
       </c>
       <c r="D106" t="n">
-        <v>158.5</v>
+        <v>158</v>
       </c>
       <c r="E106" t="n">
-        <v>158</v>
+        <v>156.3</v>
       </c>
       <c r="F106" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="G106" t="n">
-        <v>153.8016666666668</v>
+        <v>153.7083333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4280,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,7 +4294,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>158.5</v>
+        <v>158</v>
       </c>
       <c r="C107" t="n">
         <v>158.5</v>
@@ -4117,13 +4303,13 @@
         <v>158.5</v>
       </c>
       <c r="E107" t="n">
-        <v>158.5</v>
+        <v>158</v>
       </c>
       <c r="F107" t="n">
-        <v>1206.3099</v>
+        <v>560</v>
       </c>
       <c r="G107" t="n">
-        <v>153.8950000000001</v>
+        <v>153.8016666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4319,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4333,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>159.7</v>
+        <v>158.5</v>
       </c>
       <c r="C108" t="n">
-        <v>159.9</v>
+        <v>158.5</v>
       </c>
       <c r="D108" t="n">
-        <v>159.9</v>
+        <v>158.5</v>
       </c>
       <c r="E108" t="n">
-        <v>159.7</v>
+        <v>158.5</v>
       </c>
       <c r="F108" t="n">
-        <v>5877.5911</v>
+        <v>1206.3099</v>
       </c>
       <c r="G108" t="n">
-        <v>154.0116666666668</v>
+        <v>153.8950000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4358,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4372,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>159.6</v>
+        <v>159.7</v>
       </c>
       <c r="C109" t="n">
-        <v>159.6</v>
+        <v>159.9</v>
       </c>
       <c r="D109" t="n">
-        <v>159.6</v>
+        <v>159.9</v>
       </c>
       <c r="E109" t="n">
-        <v>159.6</v>
+        <v>159.7</v>
       </c>
       <c r="F109" t="n">
-        <v>2067.3501</v>
+        <v>5877.5911</v>
       </c>
       <c r="G109" t="n">
-        <v>154.1233333333334</v>
+        <v>154.0116666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4397,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,35 +4411,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>158.3</v>
+        <v>159.6</v>
       </c>
       <c r="C110" t="n">
-        <v>159.7</v>
+        <v>159.6</v>
       </c>
       <c r="D110" t="n">
-        <v>159.7</v>
+        <v>159.6</v>
       </c>
       <c r="E110" t="n">
-        <v>158.3</v>
+        <v>159.6</v>
       </c>
       <c r="F110" t="n">
-        <v>414.6387</v>
+        <v>2067.3501</v>
       </c>
       <c r="G110" t="n">
-        <v>154.2366666666668</v>
+        <v>154.1233333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4260,16 +4460,16 @@
         <v>158.3</v>
       </c>
       <c r="F111" t="n">
-        <v>5903.125</v>
+        <v>414.6387</v>
       </c>
       <c r="G111" t="n">
-        <v>154.3500000000002</v>
+        <v>154.2366666666668</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4283,28 +4483,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>159.4</v>
+        <v>158.3</v>
       </c>
       <c r="C112" t="n">
-        <v>159.4</v>
+        <v>159.7</v>
       </c>
       <c r="D112" t="n">
-        <v>159.4</v>
+        <v>159.7</v>
       </c>
       <c r="E112" t="n">
-        <v>159.4</v>
+        <v>158.3</v>
       </c>
       <c r="F112" t="n">
-        <v>31111.56</v>
+        <v>5903.125</v>
       </c>
       <c r="G112" t="n">
-        <v>154.4583333333335</v>
+        <v>154.3500000000002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4330,10 +4530,10 @@
         <v>159.4</v>
       </c>
       <c r="F113" t="n">
-        <v>7668.365</v>
+        <v>31111.56</v>
       </c>
       <c r="G113" t="n">
-        <v>154.5666666666668</v>
+        <v>154.4583333333335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4565,10 @@
         <v>159.4</v>
       </c>
       <c r="F114" t="n">
-        <v>6651.4075</v>
+        <v>7668.365</v>
       </c>
       <c r="G114" t="n">
-        <v>154.6983333333335</v>
+        <v>154.5666666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4600,10 @@
         <v>159.4</v>
       </c>
       <c r="F115" t="n">
-        <v>125</v>
+        <v>6651.4075</v>
       </c>
       <c r="G115" t="n">
-        <v>154.7850000000001</v>
+        <v>154.6983333333335</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4635,10 @@
         <v>159.4</v>
       </c>
       <c r="F116" t="n">
-        <v>1625</v>
+        <v>125</v>
       </c>
       <c r="G116" t="n">
-        <v>154.9000000000001</v>
+        <v>154.7850000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4670,10 @@
         <v>159.4</v>
       </c>
       <c r="F117" t="n">
-        <v>14784.7915</v>
+        <v>1625</v>
       </c>
       <c r="G117" t="n">
-        <v>155.0400000000001</v>
+        <v>154.9000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4705,10 @@
         <v>159.4</v>
       </c>
       <c r="F118" t="n">
-        <v>2450.95</v>
+        <v>14784.7915</v>
       </c>
       <c r="G118" t="n">
-        <v>155.1966666666668</v>
+        <v>155.0400000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4740,10 @@
         <v>159.4</v>
       </c>
       <c r="F119" t="n">
-        <v>13895.7439</v>
+        <v>2450.95</v>
       </c>
       <c r="G119" t="n">
-        <v>155.3533333333334</v>
+        <v>155.1966666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4566,19 +4766,19 @@
         <v>159.4</v>
       </c>
       <c r="C120" t="n">
-        <v>158.1</v>
+        <v>159.4</v>
       </c>
       <c r="D120" t="n">
         <v>159.4</v>
       </c>
       <c r="E120" t="n">
-        <v>158.1</v>
+        <v>159.4</v>
       </c>
       <c r="F120" t="n">
-        <v>6850</v>
+        <v>13895.7439</v>
       </c>
       <c r="G120" t="n">
-        <v>155.5050000000001</v>
+        <v>155.3533333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4798,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="C121" t="n">
         <v>158.1</v>
       </c>
-      <c r="C121" t="n">
-        <v>157.4</v>
-      </c>
       <c r="D121" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="E121" t="n">
         <v>158.1</v>
       </c>
-      <c r="E121" t="n">
-        <v>157.4</v>
-      </c>
       <c r="F121" t="n">
-        <v>669</v>
+        <v>6850</v>
       </c>
       <c r="G121" t="n">
-        <v>155.6283333333334</v>
+        <v>155.5050000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4833,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>157.4</v>
+        <v>158.1</v>
       </c>
       <c r="C122" t="n">
         <v>157.4</v>
       </c>
       <c r="D122" t="n">
-        <v>157.4</v>
+        <v>158.1</v>
       </c>
       <c r="E122" t="n">
         <v>157.4</v>
       </c>
       <c r="F122" t="n">
-        <v>290</v>
+        <v>669</v>
       </c>
       <c r="G122" t="n">
-        <v>155.7516666666668</v>
+        <v>155.6283333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4871,19 @@
         <v>157.4</v>
       </c>
       <c r="C123" t="n">
-        <v>156</v>
+        <v>157.4</v>
       </c>
       <c r="D123" t="n">
         <v>157.4</v>
       </c>
       <c r="E123" t="n">
-        <v>156</v>
+        <v>157.4</v>
       </c>
       <c r="F123" t="n">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="G123" t="n">
-        <v>155.8516666666668</v>
+        <v>155.7516666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4903,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>157</v>
+        <v>157.4</v>
       </c>
       <c r="C124" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
       <c r="D124" t="n">
-        <v>157</v>
+        <v>157.4</v>
       </c>
       <c r="E124" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
       <c r="F124" t="n">
-        <v>332.8653</v>
+        <v>125</v>
       </c>
       <c r="G124" t="n">
-        <v>155.9116666666668</v>
+        <v>155.8516666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4938,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>158.2</v>
+        <v>157</v>
       </c>
       <c r="C125" t="n">
-        <v>158.2</v>
+        <v>155.5</v>
       </c>
       <c r="D125" t="n">
-        <v>158.2</v>
+        <v>157</v>
       </c>
       <c r="E125" t="n">
-        <v>158.2</v>
+        <v>155.5</v>
       </c>
       <c r="F125" t="n">
-        <v>41.9149</v>
+        <v>332.8653</v>
       </c>
       <c r="G125" t="n">
-        <v>156.0216666666668</v>
+        <v>155.9116666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4973,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>155.7</v>
+        <v>158.2</v>
       </c>
       <c r="C126" t="n">
-        <v>155.6</v>
+        <v>158.2</v>
       </c>
       <c r="D126" t="n">
-        <v>155.7</v>
+        <v>158.2</v>
       </c>
       <c r="E126" t="n">
-        <v>155.6</v>
+        <v>158.2</v>
       </c>
       <c r="F126" t="n">
-        <v>202.1095</v>
+        <v>41.9149</v>
       </c>
       <c r="G126" t="n">
-        <v>156.0783333333334</v>
+        <v>156.0216666666668</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5008,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>155.6</v>
+        <v>155.7</v>
       </c>
       <c r="C127" t="n">
         <v>155.6</v>
       </c>
       <c r="D127" t="n">
-        <v>155.6</v>
+        <v>155.7</v>
       </c>
       <c r="E127" t="n">
         <v>155.6</v>
       </c>
       <c r="F127" t="n">
-        <v>337.7294</v>
+        <v>202.1095</v>
       </c>
       <c r="G127" t="n">
-        <v>156.1400000000001</v>
+        <v>156.0783333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5043,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>155.5</v>
+        <v>155.6</v>
       </c>
       <c r="C128" t="n">
-        <v>155.5</v>
+        <v>155.6</v>
       </c>
       <c r="D128" t="n">
-        <v>155.5</v>
+        <v>155.6</v>
       </c>
       <c r="E128" t="n">
-        <v>155.5</v>
+        <v>155.6</v>
       </c>
       <c r="F128" t="n">
-        <v>1964.765</v>
+        <v>337.7294</v>
       </c>
       <c r="G128" t="n">
-        <v>156.1966666666668</v>
+        <v>156.1400000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +5090,10 @@
         <v>155.5</v>
       </c>
       <c r="F129" t="n">
-        <v>6888.4942</v>
+        <v>1964.765</v>
       </c>
       <c r="G129" t="n">
-        <v>156.2516666666668</v>
+        <v>156.1966666666668</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +5125,10 @@
         <v>155.5</v>
       </c>
       <c r="F130" t="n">
-        <v>1903.5518</v>
+        <v>6888.4942</v>
       </c>
       <c r="G130" t="n">
-        <v>156.3316666666668</v>
+        <v>156.2516666666668</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +5160,10 @@
         <v>155.5</v>
       </c>
       <c r="F131" t="n">
-        <v>8457.8163</v>
+        <v>1903.5518</v>
       </c>
       <c r="G131" t="n">
-        <v>156.3900000000001</v>
+        <v>156.3316666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5183,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="C132" t="n">
         <v>155.5</v>
       </c>
       <c r="D132" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="E132" t="n">
         <v>155.5</v>
       </c>
       <c r="F132" t="n">
-        <v>4218.56</v>
+        <v>8457.8163</v>
       </c>
       <c r="G132" t="n">
-        <v>156.4450000000001</v>
+        <v>156.3900000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5218,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>155.5</v>
+        <v>155.6</v>
       </c>
       <c r="C133" t="n">
         <v>155.5</v>
       </c>
       <c r="D133" t="n">
-        <v>155.5</v>
+        <v>155.6</v>
       </c>
       <c r="E133" t="n">
         <v>155.5</v>
       </c>
       <c r="F133" t="n">
-        <v>1111.33</v>
+        <v>4218.56</v>
       </c>
       <c r="G133" t="n">
-        <v>156.4750000000001</v>
+        <v>156.4450000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5059,16 +5259,16 @@
         <v>155.5</v>
       </c>
       <c r="D134" t="n">
-        <v>156.9</v>
+        <v>155.5</v>
       </c>
       <c r="E134" t="n">
         <v>155.5</v>
       </c>
       <c r="F134" t="n">
-        <v>5953.1141</v>
+        <v>1111.33</v>
       </c>
       <c r="G134" t="n">
-        <v>156.4933333333334</v>
+        <v>156.4750000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5288,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>153</v>
+        <v>155.5</v>
       </c>
       <c r="C135" t="n">
-        <v>153</v>
+        <v>155.5</v>
       </c>
       <c r="D135" t="n">
-        <v>153</v>
+        <v>156.9</v>
       </c>
       <c r="E135" t="n">
-        <v>153</v>
+        <v>155.5</v>
       </c>
       <c r="F135" t="n">
-        <v>626.5723</v>
+        <v>5953.1141</v>
       </c>
       <c r="G135" t="n">
-        <v>156.4683333333334</v>
+        <v>156.4933333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5335,10 @@
         <v>153</v>
       </c>
       <c r="F136" t="n">
-        <v>660.5223</v>
+        <v>626.5723</v>
       </c>
       <c r="G136" t="n">
-        <v>156.4266666666667</v>
+        <v>156.4683333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5361,19 @@
         <v>153</v>
       </c>
       <c r="C137" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D137" t="n">
         <v>153</v>
       </c>
       <c r="E137" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F137" t="n">
-        <v>199</v>
+        <v>660.5223</v>
       </c>
       <c r="G137" t="n">
-        <v>156.3666666666667</v>
+        <v>156.4266666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5393,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="C138" t="n">
-        <v>151.3</v>
+        <v>152</v>
       </c>
       <c r="D138" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="E138" t="n">
-        <v>151.3</v>
+        <v>152</v>
       </c>
       <c r="F138" t="n">
-        <v>11031.0627</v>
+        <v>199</v>
       </c>
       <c r="G138" t="n">
-        <v>156.2983333333334</v>
+        <v>156.3666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,32 +5428,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>151.3</v>
+        <v>151.4</v>
       </c>
       <c r="C139" t="n">
         <v>151.3</v>
       </c>
       <c r="D139" t="n">
-        <v>151.3</v>
+        <v>151.4</v>
       </c>
       <c r="E139" t="n">
         <v>151.3</v>
       </c>
       <c r="F139" t="n">
-        <v>158.3582</v>
+        <v>11031.0627</v>
       </c>
       <c r="G139" t="n">
-        <v>156.2283333333334</v>
+        <v>156.2983333333334</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>152</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5275,20 +5481,26 @@
         <v>151.3</v>
       </c>
       <c r="F140" t="n">
-        <v>7804.1622</v>
+        <v>158.3582</v>
       </c>
       <c r="G140" t="n">
-        <v>156.1566666666667</v>
+        <v>156.2283333333334</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>151.3</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,32 +5510,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>153</v>
+        <v>151.3</v>
       </c>
       <c r="C141" t="n">
-        <v>153</v>
+        <v>151.3</v>
       </c>
       <c r="D141" t="n">
-        <v>153</v>
+        <v>151.3</v>
       </c>
       <c r="E141" t="n">
-        <v>153</v>
+        <v>151.3</v>
       </c>
       <c r="F141" t="n">
-        <v>632.5339</v>
+        <v>7804.1622</v>
       </c>
       <c r="G141" t="n">
-        <v>156.1383333333333</v>
+        <v>156.1566666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>151.3</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5551,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>152.1</v>
+        <v>153</v>
       </c>
       <c r="C142" t="n">
-        <v>153.1</v>
+        <v>153</v>
       </c>
       <c r="D142" t="n">
-        <v>153.1</v>
+        <v>153</v>
       </c>
       <c r="E142" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F142" t="n">
-        <v>58458.98</v>
+        <v>632.5339</v>
       </c>
       <c r="G142" t="n">
-        <v>156.1216666666667</v>
+        <v>156.1383333333333</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
@@ -5357,12 +5575,12 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>153</v>
+        <v>151.3</v>
       </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M142" t="n">
@@ -5374,32 +5592,30 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>153</v>
+        <v>152.1</v>
       </c>
       <c r="C143" t="n">
-        <v>153</v>
+        <v>153.1</v>
       </c>
       <c r="D143" t="n">
-        <v>153</v>
+        <v>153.1</v>
       </c>
       <c r="E143" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F143" t="n">
-        <v>322.1542</v>
+        <v>58458.98</v>
       </c>
       <c r="G143" t="n">
-        <v>156.1033333333334</v>
+        <v>156.1216666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>153.1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5427,10 +5643,10 @@
         <v>153</v>
       </c>
       <c r="F144" t="n">
-        <v>322</v>
+        <v>322.1542</v>
       </c>
       <c r="G144" t="n">
-        <v>156.085</v>
+        <v>156.1033333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5454,22 +5670,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="C145" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="D145" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="E145" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="F145" t="n">
-        <v>290.2595</v>
+        <v>322</v>
       </c>
       <c r="G145" t="n">
-        <v>156.06</v>
+        <v>156.085</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5493,22 +5709,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>152.3</v>
+        <v>152.4</v>
       </c>
       <c r="C146" t="n">
-        <v>152.3</v>
+        <v>152.4</v>
       </c>
       <c r="D146" t="n">
-        <v>152.3</v>
+        <v>152.4</v>
       </c>
       <c r="E146" t="n">
-        <v>152.3</v>
+        <v>152.4</v>
       </c>
       <c r="F146" t="n">
-        <v>224</v>
+        <v>290.2595</v>
       </c>
       <c r="G146" t="n">
-        <v>156.03</v>
+        <v>156.06</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5532,22 +5748,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>152</v>
+        <v>152.3</v>
       </c>
       <c r="C147" t="n">
-        <v>152</v>
+        <v>152.3</v>
       </c>
       <c r="D147" t="n">
-        <v>152</v>
+        <v>152.3</v>
       </c>
       <c r="E147" t="n">
-        <v>152</v>
+        <v>152.3</v>
       </c>
       <c r="F147" t="n">
-        <v>231.4878</v>
+        <v>224</v>
       </c>
       <c r="G147" t="n">
-        <v>155.9766666666666</v>
+        <v>156.03</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5571,22 +5787,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>151.3</v>
+        <v>152</v>
       </c>
       <c r="C148" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D148" t="n">
-        <v>151.3</v>
+        <v>152</v>
       </c>
       <c r="E148" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F148" t="n">
-        <v>13623.77</v>
+        <v>231.4878</v>
       </c>
       <c r="G148" t="n">
-        <v>155.9066666666666</v>
+        <v>155.9766666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5610,22 +5826,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>151</v>
+        <v>151.3</v>
       </c>
       <c r="C149" t="n">
         <v>151</v>
       </c>
       <c r="D149" t="n">
-        <v>151</v>
+        <v>151.3</v>
       </c>
       <c r="E149" t="n">
         <v>151</v>
       </c>
       <c r="F149" t="n">
-        <v>2416.4928</v>
+        <v>13623.77</v>
       </c>
       <c r="G149" t="n">
-        <v>155.835</v>
+        <v>155.9066666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5661,10 +5877,10 @@
         <v>151</v>
       </c>
       <c r="F150" t="n">
-        <v>231.4879</v>
+        <v>2416.4928</v>
       </c>
       <c r="G150" t="n">
-        <v>155.765</v>
+        <v>155.835</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -5690,22 +5906,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>151.4</v>
+        <v>151</v>
       </c>
       <c r="C151" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D151" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E151" t="n">
-        <v>151.4</v>
+        <v>151</v>
       </c>
       <c r="F151" t="n">
-        <v>526.0789</v>
+        <v>231.4879</v>
       </c>
       <c r="G151" t="n">
-        <v>155.7416666666666</v>
+        <v>155.765</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5729,30 +5945,32 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>152.4</v>
+        <v>151.4</v>
       </c>
       <c r="C152" t="n">
-        <v>152.4</v>
+        <v>152</v>
       </c>
       <c r="D152" t="n">
-        <v>152.4</v>
+        <v>152</v>
       </c>
       <c r="E152" t="n">
-        <v>152.4</v>
+        <v>151.4</v>
       </c>
       <c r="F152" t="n">
-        <v>277.2649</v>
+        <v>526.0789</v>
       </c>
       <c r="G152" t="n">
-        <v>155.695</v>
+        <v>155.7416666666666</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>151</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5768,22 +5986,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>153.1</v>
+        <v>152.4</v>
       </c>
       <c r="C153" t="n">
-        <v>153.1</v>
+        <v>152.4</v>
       </c>
       <c r="D153" t="n">
-        <v>153.1</v>
+        <v>152.4</v>
       </c>
       <c r="E153" t="n">
-        <v>153.1</v>
+        <v>152.4</v>
       </c>
       <c r="F153" t="n">
-        <v>647.6684</v>
+        <v>277.2649</v>
       </c>
       <c r="G153" t="n">
-        <v>155.6566666666666</v>
+        <v>155.695</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5807,30 +6025,32 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>152.7</v>
+        <v>153.1</v>
       </c>
       <c r="C154" t="n">
-        <v>152.7</v>
+        <v>153.1</v>
       </c>
       <c r="D154" t="n">
-        <v>152.7</v>
+        <v>153.1</v>
       </c>
       <c r="E154" t="n">
-        <v>152.7</v>
+        <v>153.1</v>
       </c>
       <c r="F154" t="n">
-        <v>219.3558</v>
+        <v>647.6684</v>
       </c>
       <c r="G154" t="n">
-        <v>155.61</v>
+        <v>155.6566666666666</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>152.4</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -5846,30 +6066,32 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>153</v>
+        <v>152.7</v>
       </c>
       <c r="C155" t="n">
-        <v>153.2</v>
+        <v>152.7</v>
       </c>
       <c r="D155" t="n">
-        <v>153.2</v>
+        <v>152.7</v>
       </c>
       <c r="E155" t="n">
-        <v>153</v>
+        <v>152.7</v>
       </c>
       <c r="F155" t="n">
-        <v>1655</v>
+        <v>219.3558</v>
       </c>
       <c r="G155" t="n">
-        <v>155.5716666666667</v>
+        <v>155.61</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>153.1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -5885,22 +6107,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156" t="n">
-        <v>154</v>
+        <v>153.2</v>
       </c>
       <c r="D156" t="n">
-        <v>154</v>
+        <v>153.2</v>
       </c>
       <c r="E156" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F156" t="n">
-        <v>5170.6342</v>
+        <v>1655</v>
       </c>
       <c r="G156" t="n">
-        <v>155.5466666666667</v>
+        <v>155.5716666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5936,20 +6158,18 @@
         <v>154</v>
       </c>
       <c r="F157" t="n">
-        <v>3499.9999</v>
+        <v>5170.6342</v>
       </c>
       <c r="G157" t="n">
-        <v>155.52</v>
+        <v>155.5466666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>154</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -5977,20 +6197,18 @@
         <v>154</v>
       </c>
       <c r="F158" t="n">
-        <v>1000.3</v>
+        <v>3499.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>155.4933333333333</v>
+        <v>155.52</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>154</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6006,32 +6224,30 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="C159" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="D159" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="E159" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="F159" t="n">
-        <v>355.4844</v>
+        <v>1000.3</v>
       </c>
       <c r="G159" t="n">
-        <v>155.465</v>
+        <v>155.4933333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>154</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6050,29 +6266,27 @@
         <v>153.9</v>
       </c>
       <c r="C160" t="n">
-        <v>154</v>
+        <v>153.9</v>
       </c>
       <c r="D160" t="n">
-        <v>154</v>
+        <v>153.9</v>
       </c>
       <c r="E160" t="n">
         <v>153.9</v>
       </c>
       <c r="F160" t="n">
-        <v>1283.0689</v>
+        <v>355.4844</v>
       </c>
       <c r="G160" t="n">
-        <v>155.4266666666666</v>
+        <v>155.465</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>153.9</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6088,7 +6302,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>154</v>
+        <v>153.9</v>
       </c>
       <c r="C161" t="n">
         <v>154</v>
@@ -6097,13 +6311,13 @@
         <v>154</v>
       </c>
       <c r="E161" t="n">
-        <v>154</v>
+        <v>153.9</v>
       </c>
       <c r="F161" t="n">
-        <v>459.7185</v>
+        <v>1283.0689</v>
       </c>
       <c r="G161" t="n">
-        <v>155.3783333333333</v>
+        <v>155.4266666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6139,10 +6353,10 @@
         <v>154</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0001</v>
+        <v>459.7185</v>
       </c>
       <c r="G162" t="n">
-        <v>155.3283333333333</v>
+        <v>155.3783333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6166,22 +6380,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="C163" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="D163" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="E163" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="F163" t="n">
-        <v>130</v>
+        <v>0.0001</v>
       </c>
       <c r="G163" t="n">
-        <v>155.2716666666666</v>
+        <v>155.3283333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6217,10 +6431,10 @@
         <v>154.1</v>
       </c>
       <c r="F164" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="G164" t="n">
-        <v>155.215</v>
+        <v>155.2716666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6256,10 +6470,10 @@
         <v>154.1</v>
       </c>
       <c r="F165" t="n">
-        <v>2054.6163</v>
+        <v>40</v>
       </c>
       <c r="G165" t="n">
-        <v>155.1783333333333</v>
+        <v>155.215</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6295,10 +6509,10 @@
         <v>154.1</v>
       </c>
       <c r="F166" t="n">
-        <v>1287.3861</v>
+        <v>2054.6163</v>
       </c>
       <c r="G166" t="n">
-        <v>155.105</v>
+        <v>155.1783333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6325,19 +6539,19 @@
         <v>154.1</v>
       </c>
       <c r="C167" t="n">
-        <v>154.2</v>
+        <v>154.1</v>
       </c>
       <c r="D167" t="n">
-        <v>154.2</v>
+        <v>154.1</v>
       </c>
       <c r="E167" t="n">
         <v>154.1</v>
       </c>
       <c r="F167" t="n">
-        <v>282.2644</v>
+        <v>1287.3861</v>
       </c>
       <c r="G167" t="n">
-        <v>155.0333333333334</v>
+        <v>155.105</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6361,22 +6575,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="C168" t="n">
         <v>154.2</v>
       </c>
-      <c r="C168" t="n">
-        <v>155.1</v>
-      </c>
       <c r="D168" t="n">
-        <v>155.1</v>
+        <v>154.2</v>
       </c>
       <c r="E168" t="n">
-        <v>154.2</v>
+        <v>154.1</v>
       </c>
       <c r="F168" t="n">
-        <v>4200</v>
+        <v>282.2644</v>
       </c>
       <c r="G168" t="n">
-        <v>154.9533333333334</v>
+        <v>155.0333333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6400,22 +6614,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="C169" t="n">
         <v>155.1</v>
       </c>
-      <c r="C169" t="n">
-        <v>155.4</v>
-      </c>
       <c r="D169" t="n">
-        <v>155.4</v>
+        <v>155.1</v>
       </c>
       <c r="E169" t="n">
-        <v>155.1</v>
+        <v>154.2</v>
       </c>
       <c r="F169" t="n">
-        <v>527.9533</v>
+        <v>4200</v>
       </c>
       <c r="G169" t="n">
-        <v>154.8833333333334</v>
+        <v>154.9533333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6439,7 +6653,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>155.4</v>
+        <v>155.1</v>
       </c>
       <c r="C170" t="n">
         <v>155.4</v>
@@ -6448,13 +6662,13 @@
         <v>155.4</v>
       </c>
       <c r="E170" t="n">
-        <v>155.4</v>
+        <v>155.1</v>
       </c>
       <c r="F170" t="n">
-        <v>197.5688</v>
+        <v>527.9533</v>
       </c>
       <c r="G170" t="n">
-        <v>154.8116666666667</v>
+        <v>154.8833333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6478,22 +6692,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="C171" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="D171" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="E171" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="F171" t="n">
-        <v>71.6828</v>
+        <v>197.5688</v>
       </c>
       <c r="G171" t="n">
-        <v>154.7416666666667</v>
+        <v>154.8116666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6517,22 +6731,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>157</v>
+        <v>155.5</v>
       </c>
       <c r="C172" t="n">
-        <v>156.9</v>
+        <v>155.5</v>
       </c>
       <c r="D172" t="n">
-        <v>157</v>
+        <v>155.5</v>
       </c>
       <c r="E172" t="n">
         <v>155.5</v>
       </c>
       <c r="F172" t="n">
-        <v>369.9916</v>
+        <v>71.6828</v>
       </c>
       <c r="G172" t="n">
-        <v>154.7</v>
+        <v>154.7416666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6556,22 +6770,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="C173" t="n">
         <v>156.9</v>
       </c>
       <c r="D173" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="E173" t="n">
-        <v>156.9</v>
+        <v>155.5</v>
       </c>
       <c r="F173" t="n">
-        <v>1957.5038</v>
+        <v>369.9916</v>
       </c>
       <c r="G173" t="n">
-        <v>154.6583333333333</v>
+        <v>154.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6607,10 +6821,10 @@
         <v>156.9</v>
       </c>
       <c r="F174" t="n">
-        <v>1150</v>
+        <v>1957.5038</v>
       </c>
       <c r="G174" t="n">
-        <v>154.6166666666667</v>
+        <v>154.6583333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6634,22 +6848,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>156.6</v>
+        <v>156.9</v>
       </c>
       <c r="C175" t="n">
-        <v>156.6</v>
+        <v>156.9</v>
       </c>
       <c r="D175" t="n">
-        <v>156.6</v>
+        <v>156.9</v>
       </c>
       <c r="E175" t="n">
-        <v>156.6</v>
+        <v>156.9</v>
       </c>
       <c r="F175" t="n">
-        <v>8.583</v>
+        <v>1150</v>
       </c>
       <c r="G175" t="n">
-        <v>154.57</v>
+        <v>154.6166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6673,22 +6887,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>157</v>
+        <v>156.6</v>
       </c>
       <c r="C176" t="n">
-        <v>157</v>
+        <v>156.6</v>
       </c>
       <c r="D176" t="n">
-        <v>157</v>
+        <v>156.6</v>
       </c>
       <c r="E176" t="n">
-        <v>157</v>
+        <v>156.6</v>
       </c>
       <c r="F176" t="n">
-        <v>1553.288</v>
+        <v>8.583</v>
       </c>
       <c r="G176" t="n">
-        <v>154.53</v>
+        <v>154.57</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6712,22 +6926,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="C177" t="n">
-        <v>156.7</v>
+        <v>157</v>
       </c>
       <c r="D177" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="E177" t="n">
-        <v>156.7</v>
+        <v>157</v>
       </c>
       <c r="F177" t="n">
-        <v>1286.9062</v>
+        <v>1553.288</v>
       </c>
       <c r="G177" t="n">
-        <v>154.485</v>
+        <v>154.53</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6754,19 +6968,19 @@
         <v>156.9</v>
       </c>
       <c r="C178" t="n">
-        <v>156.9</v>
+        <v>156.7</v>
       </c>
       <c r="D178" t="n">
         <v>156.9</v>
       </c>
       <c r="E178" t="n">
-        <v>156.9</v>
+        <v>156.7</v>
       </c>
       <c r="F178" t="n">
-        <v>643.4530999999999</v>
+        <v>1286.9062</v>
       </c>
       <c r="G178" t="n">
-        <v>154.4433333333334</v>
+        <v>154.485</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6790,22 +7004,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>157</v>
+        <v>156.9</v>
       </c>
       <c r="C179" t="n">
-        <v>157</v>
+        <v>156.9</v>
       </c>
       <c r="D179" t="n">
-        <v>157</v>
+        <v>156.9</v>
       </c>
       <c r="E179" t="n">
-        <v>157</v>
+        <v>156.9</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0001</v>
+        <v>643.4530999999999</v>
       </c>
       <c r="G179" t="n">
-        <v>154.4033333333334</v>
+        <v>154.4433333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6829,22 +7043,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>157.3</v>
+        <v>157</v>
       </c>
       <c r="C180" t="n">
-        <v>158.9</v>
+        <v>157</v>
       </c>
       <c r="D180" t="n">
-        <v>158.9</v>
+        <v>157</v>
       </c>
       <c r="E180" t="n">
-        <v>157.2</v>
+        <v>157</v>
       </c>
       <c r="F180" t="n">
-        <v>1118.4532</v>
+        <v>0.0001</v>
       </c>
       <c r="G180" t="n">
-        <v>154.4166666666667</v>
+        <v>154.4033333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6868,22 +7082,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>157.1</v>
+        <v>157.3</v>
       </c>
       <c r="C181" t="n">
-        <v>157.1</v>
+        <v>158.9</v>
       </c>
       <c r="D181" t="n">
-        <v>157.1</v>
+        <v>158.9</v>
       </c>
       <c r="E181" t="n">
-        <v>157.1</v>
+        <v>157.2</v>
       </c>
       <c r="F181" t="n">
-        <v>358.5202</v>
+        <v>1118.4532</v>
       </c>
       <c r="G181" t="n">
-        <v>154.4116666666667</v>
+        <v>154.4166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6907,22 +7121,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>156.8</v>
+        <v>157.1</v>
       </c>
       <c r="C182" t="n">
-        <v>156.2</v>
+        <v>157.1</v>
       </c>
       <c r="D182" t="n">
-        <v>156.8</v>
+        <v>157.1</v>
       </c>
       <c r="E182" t="n">
-        <v>156.2</v>
+        <v>157.1</v>
       </c>
       <c r="F182" t="n">
-        <v>1286.9062</v>
+        <v>358.5202</v>
       </c>
       <c r="G182" t="n">
-        <v>154.3916666666667</v>
+        <v>154.4116666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6946,22 +7160,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="C183" t="n">
         <v>156.2</v>
       </c>
-      <c r="C183" t="n">
-        <v>156.1</v>
-      </c>
       <c r="D183" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="E183" t="n">
         <v>156.2</v>
       </c>
-      <c r="E183" t="n">
-        <v>156.1</v>
-      </c>
       <c r="F183" t="n">
-        <v>1286.9063</v>
+        <v>1286.9062</v>
       </c>
       <c r="G183" t="n">
-        <v>154.3933333333334</v>
+        <v>154.3916666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6988,19 +7202,19 @@
         <v>156.2</v>
       </c>
       <c r="C184" t="n">
-        <v>156.2</v>
+        <v>156.1</v>
       </c>
       <c r="D184" t="n">
         <v>156.2</v>
       </c>
       <c r="E184" t="n">
-        <v>156.2</v>
+        <v>156.1</v>
       </c>
       <c r="F184" t="n">
-        <v>1000</v>
+        <v>1286.9063</v>
       </c>
       <c r="G184" t="n">
-        <v>154.4050000000001</v>
+        <v>154.3933333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7027,19 +7241,19 @@
         <v>156.2</v>
       </c>
       <c r="C185" t="n">
-        <v>155.6</v>
+        <v>156.2</v>
       </c>
       <c r="D185" t="n">
         <v>156.2</v>
       </c>
       <c r="E185" t="n">
-        <v>155.6</v>
+        <v>156.2</v>
       </c>
       <c r="F185" t="n">
-        <v>1856.5999</v>
+        <v>1000</v>
       </c>
       <c r="G185" t="n">
-        <v>154.3616666666667</v>
+        <v>154.4050000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7063,22 +7277,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>156</v>
+        <v>156.2</v>
       </c>
       <c r="C186" t="n">
-        <v>156</v>
+        <v>155.6</v>
       </c>
       <c r="D186" t="n">
-        <v>156</v>
+        <v>156.2</v>
       </c>
       <c r="E186" t="n">
-        <v>156</v>
+        <v>155.6</v>
       </c>
       <c r="F186" t="n">
-        <v>2215.8552</v>
+        <v>1856.5999</v>
       </c>
       <c r="G186" t="n">
-        <v>154.3683333333334</v>
+        <v>154.3616666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7105,19 +7319,19 @@
         <v>156</v>
       </c>
       <c r="C187" t="n">
-        <v>157.2</v>
+        <v>156</v>
       </c>
       <c r="D187" t="n">
-        <v>157.2</v>
+        <v>156</v>
       </c>
       <c r="E187" t="n">
         <v>156</v>
       </c>
       <c r="F187" t="n">
-        <v>2275.2697</v>
+        <v>2215.8552</v>
       </c>
       <c r="G187" t="n">
-        <v>154.3950000000001</v>
+        <v>154.3683333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7141,22 +7355,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>157.4</v>
+        <v>156</v>
       </c>
       <c r="C188" t="n">
-        <v>157.6</v>
+        <v>157.2</v>
       </c>
       <c r="D188" t="n">
-        <v>157.6</v>
+        <v>157.2</v>
       </c>
       <c r="E188" t="n">
-        <v>157.4</v>
+        <v>156</v>
       </c>
       <c r="F188" t="n">
-        <v>10583.1223</v>
+        <v>2275.2697</v>
       </c>
       <c r="G188" t="n">
-        <v>154.4300000000001</v>
+        <v>154.3950000000001</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7180,7 +7394,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>157.6</v>
+        <v>157.4</v>
       </c>
       <c r="C189" t="n">
         <v>157.6</v>
@@ -7189,13 +7403,13 @@
         <v>157.6</v>
       </c>
       <c r="E189" t="n">
-        <v>157.6</v>
+        <v>157.4</v>
       </c>
       <c r="F189" t="n">
-        <v>3747.9864</v>
+        <v>10583.1223</v>
       </c>
       <c r="G189" t="n">
-        <v>154.4650000000001</v>
+        <v>154.4300000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7231,10 +7445,10 @@
         <v>157.6</v>
       </c>
       <c r="F190" t="n">
-        <v>641.88</v>
+        <v>3747.9864</v>
       </c>
       <c r="G190" t="n">
-        <v>154.5000000000001</v>
+        <v>154.4650000000001</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7270,10 +7484,10 @@
         <v>157.6</v>
       </c>
       <c r="F191" t="n">
-        <v>125</v>
+        <v>641.88</v>
       </c>
       <c r="G191" t="n">
-        <v>154.5350000000001</v>
+        <v>154.5000000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7309,10 +7523,10 @@
         <v>157.6</v>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="G192" t="n">
-        <v>154.5700000000001</v>
+        <v>154.5350000000001</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7348,10 +7562,10 @@
         <v>157.6</v>
       </c>
       <c r="F193" t="n">
-        <v>1974.1654</v>
+        <v>250</v>
       </c>
       <c r="G193" t="n">
-        <v>154.6050000000001</v>
+        <v>154.5700000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7375,22 +7589,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>158.7</v>
+        <v>157.6</v>
       </c>
       <c r="C194" t="n">
-        <v>158.7</v>
+        <v>157.6</v>
       </c>
       <c r="D194" t="n">
-        <v>158.7</v>
+        <v>157.6</v>
       </c>
       <c r="E194" t="n">
-        <v>158.7</v>
+        <v>157.6</v>
       </c>
       <c r="F194" t="n">
-        <v>475.6801</v>
+        <v>1974.1654</v>
       </c>
       <c r="G194" t="n">
-        <v>154.6583333333334</v>
+        <v>154.6050000000001</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7426,10 +7640,10 @@
         <v>158.7</v>
       </c>
       <c r="F195" t="n">
-        <v>630.1198000000001</v>
+        <v>475.6801</v>
       </c>
       <c r="G195" t="n">
-        <v>154.7533333333335</v>
+        <v>154.6583333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7453,22 +7667,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>157.9</v>
+        <v>158.7</v>
       </c>
       <c r="C196" t="n">
-        <v>157.9</v>
+        <v>158.7</v>
       </c>
       <c r="D196" t="n">
-        <v>157.9</v>
+        <v>158.7</v>
       </c>
       <c r="E196" t="n">
-        <v>157.9</v>
+        <v>158.7</v>
       </c>
       <c r="F196" t="n">
-        <v>42.4315</v>
+        <v>630.1198000000001</v>
       </c>
       <c r="G196" t="n">
-        <v>154.8350000000001</v>
+        <v>154.7533333333335</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7504,10 +7718,10 @@
         <v>157.9</v>
       </c>
       <c r="F197" t="n">
-        <v>693.9736</v>
+        <v>42.4315</v>
       </c>
       <c r="G197" t="n">
-        <v>154.9333333333335</v>
+        <v>154.8350000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7531,22 +7745,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>157</v>
+        <v>157.9</v>
       </c>
       <c r="C198" t="n">
-        <v>157</v>
+        <v>157.9</v>
       </c>
       <c r="D198" t="n">
-        <v>157</v>
+        <v>157.9</v>
       </c>
       <c r="E198" t="n">
-        <v>157</v>
+        <v>157.9</v>
       </c>
       <c r="F198" t="n">
-        <v>107.6942</v>
+        <v>693.9736</v>
       </c>
       <c r="G198" t="n">
-        <v>155.0283333333335</v>
+        <v>154.9333333333335</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7573,19 +7787,19 @@
         <v>157</v>
       </c>
       <c r="C199" t="n">
-        <v>157.5</v>
+        <v>157</v>
       </c>
       <c r="D199" t="n">
-        <v>157.5</v>
+        <v>157</v>
       </c>
       <c r="E199" t="n">
         <v>157</v>
       </c>
       <c r="F199" t="n">
-        <v>6670.5669</v>
+        <v>107.6942</v>
       </c>
       <c r="G199" t="n">
-        <v>155.1316666666668</v>
+        <v>155.0283333333335</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7609,22 +7823,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>157.2</v>
+        <v>157</v>
       </c>
       <c r="C200" t="n">
-        <v>157.3</v>
+        <v>157.5</v>
       </c>
       <c r="D200" t="n">
-        <v>157.3</v>
+        <v>157.5</v>
       </c>
       <c r="E200" t="n">
-        <v>157.2</v>
+        <v>157</v>
       </c>
       <c r="F200" t="n">
-        <v>5999.9999</v>
+        <v>6670.5669</v>
       </c>
       <c r="G200" t="n">
-        <v>155.2316666666668</v>
+        <v>155.1316666666668</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7648,22 +7862,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="C201" t="n">
         <v>157.3</v>
       </c>
-      <c r="C201" t="n">
-        <v>157.4</v>
-      </c>
       <c r="D201" t="n">
-        <v>157.4</v>
+        <v>157.3</v>
       </c>
       <c r="E201" t="n">
-        <v>157.3</v>
+        <v>157.2</v>
       </c>
       <c r="F201" t="n">
-        <v>702.9269</v>
+        <v>5999.9999</v>
       </c>
       <c r="G201" t="n">
-        <v>155.3050000000001</v>
+        <v>155.2316666666668</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7687,22 +7901,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="C202" t="n">
         <v>157.4</v>
       </c>
-      <c r="C202" t="n">
-        <v>157.5</v>
-      </c>
       <c r="D202" t="n">
-        <v>157.5</v>
+        <v>157.4</v>
       </c>
       <c r="E202" t="n">
-        <v>157.4</v>
+        <v>157.3</v>
       </c>
       <c r="F202" t="n">
-        <v>2786.6201</v>
+        <v>702.9269</v>
       </c>
       <c r="G202" t="n">
-        <v>155.3783333333335</v>
+        <v>155.3050000000001</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7726,7 +7940,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>157.5</v>
+        <v>157.4</v>
       </c>
       <c r="C203" t="n">
         <v>157.5</v>
@@ -7735,13 +7949,13 @@
         <v>157.5</v>
       </c>
       <c r="E203" t="n">
-        <v>157.5</v>
+        <v>157.4</v>
       </c>
       <c r="F203" t="n">
-        <v>2467.192</v>
+        <v>2786.6201</v>
       </c>
       <c r="G203" t="n">
-        <v>155.4533333333335</v>
+        <v>155.3783333333335</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7765,22 +7979,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>157.6</v>
+        <v>157.5</v>
       </c>
       <c r="C204" t="n">
-        <v>157.6</v>
+        <v>157.5</v>
       </c>
       <c r="D204" t="n">
-        <v>157.6</v>
+        <v>157.5</v>
       </c>
       <c r="E204" t="n">
-        <v>157.6</v>
+        <v>157.5</v>
       </c>
       <c r="F204" t="n">
-        <v>821.5463999999999</v>
+        <v>2467.192</v>
       </c>
       <c r="G204" t="n">
-        <v>155.5300000000001</v>
+        <v>155.4533333333335</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7807,19 +8021,19 @@
         <v>157.6</v>
       </c>
       <c r="C205" t="n">
-        <v>157.7</v>
+        <v>157.6</v>
       </c>
       <c r="D205" t="n">
-        <v>157.7</v>
+        <v>157.6</v>
       </c>
       <c r="E205" t="n">
         <v>157.6</v>
       </c>
       <c r="F205" t="n">
-        <v>9178.4535</v>
+        <v>821.5463999999999</v>
       </c>
       <c r="G205" t="n">
-        <v>155.6183333333335</v>
+        <v>155.5300000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7843,22 +8057,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="C206" t="n">
         <v>157.7</v>
       </c>
-      <c r="C206" t="n">
-        <v>157.8</v>
-      </c>
       <c r="D206" t="n">
-        <v>157.8</v>
+        <v>157.7</v>
       </c>
       <c r="E206" t="n">
-        <v>157.7</v>
+        <v>157.6</v>
       </c>
       <c r="F206" t="n">
-        <v>5000.0001</v>
+        <v>9178.4535</v>
       </c>
       <c r="G206" t="n">
-        <v>155.7100000000002</v>
+        <v>155.6183333333335</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7882,22 +8096,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>158.7</v>
+        <v>157.7</v>
       </c>
       <c r="C207" t="n">
-        <v>158.7</v>
+        <v>157.8</v>
       </c>
       <c r="D207" t="n">
-        <v>158.7</v>
+        <v>157.8</v>
       </c>
       <c r="E207" t="n">
-        <v>158.7</v>
+        <v>157.7</v>
       </c>
       <c r="F207" t="n">
-        <v>6396.8029</v>
+        <v>5000.0001</v>
       </c>
       <c r="G207" t="n">
-        <v>155.8216666666668</v>
+        <v>155.7100000000002</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7921,22 +8135,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>158.8</v>
+        <v>158.7</v>
       </c>
       <c r="C208" t="n">
-        <v>159</v>
+        <v>158.7</v>
       </c>
       <c r="D208" t="n">
-        <v>159</v>
+        <v>158.7</v>
       </c>
       <c r="E208" t="n">
-        <v>158.8</v>
+        <v>158.7</v>
       </c>
       <c r="F208" t="n">
-        <v>13880</v>
+        <v>6396.8029</v>
       </c>
       <c r="G208" t="n">
-        <v>155.9550000000002</v>
+        <v>155.8216666666668</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7960,7 +8174,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>159</v>
+        <v>158.8</v>
       </c>
       <c r="C209" t="n">
         <v>159</v>
@@ -7969,13 +8183,13 @@
         <v>159</v>
       </c>
       <c r="E209" t="n">
-        <v>159</v>
+        <v>158.8</v>
       </c>
       <c r="F209" t="n">
-        <v>1718.5</v>
+        <v>13880</v>
       </c>
       <c r="G209" t="n">
-        <v>156.0883333333335</v>
+        <v>155.9550000000002</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7999,22 +8213,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>159.1</v>
+        <v>159</v>
       </c>
       <c r="C210" t="n">
-        <v>159.1</v>
+        <v>159</v>
       </c>
       <c r="D210" t="n">
-        <v>159.1</v>
+        <v>159</v>
       </c>
       <c r="E210" t="n">
-        <v>159.1</v>
+        <v>159</v>
       </c>
       <c r="F210" t="n">
-        <v>208.0624</v>
+        <v>1718.5</v>
       </c>
       <c r="G210" t="n">
-        <v>156.2233333333335</v>
+        <v>156.0883333333335</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8050,10 +8264,10 @@
         <v>159.1</v>
       </c>
       <c r="F211" t="n">
-        <v>3050.3578</v>
+        <v>208.0624</v>
       </c>
       <c r="G211" t="n">
-        <v>156.3416666666668</v>
+        <v>156.2233333333335</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8080,19 +8294,19 @@
         <v>159.1</v>
       </c>
       <c r="C212" t="n">
-        <v>159.2</v>
+        <v>159.1</v>
       </c>
       <c r="D212" t="n">
-        <v>159.2</v>
+        <v>159.1</v>
       </c>
       <c r="E212" t="n">
         <v>159.1</v>
       </c>
       <c r="F212" t="n">
-        <v>3625</v>
+        <v>3050.3578</v>
       </c>
       <c r="G212" t="n">
-        <v>156.4550000000002</v>
+        <v>156.3416666666668</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8116,22 +8330,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="C213" t="n">
         <v>159.2</v>
       </c>
-      <c r="C213" t="n">
-        <v>160</v>
-      </c>
       <c r="D213" t="n">
-        <v>160</v>
+        <v>159.2</v>
       </c>
       <c r="E213" t="n">
-        <v>159.2</v>
+        <v>159.1</v>
       </c>
       <c r="F213" t="n">
-        <v>34700</v>
+        <v>3625</v>
       </c>
       <c r="G213" t="n">
-        <v>156.5700000000002</v>
+        <v>156.4550000000002</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8155,7 +8369,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>160</v>
+        <v>159.2</v>
       </c>
       <c r="C214" t="n">
         <v>160</v>
@@ -8164,13 +8378,13 @@
         <v>160</v>
       </c>
       <c r="E214" t="n">
-        <v>160</v>
+        <v>159.2</v>
       </c>
       <c r="F214" t="n">
-        <v>475</v>
+        <v>34700</v>
       </c>
       <c r="G214" t="n">
-        <v>156.6916666666669</v>
+        <v>156.5700000000002</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8197,19 +8411,19 @@
         <v>160</v>
       </c>
       <c r="C215" t="n">
-        <v>161.7</v>
+        <v>160</v>
       </c>
       <c r="D215" t="n">
-        <v>161.7</v>
+        <v>160</v>
       </c>
       <c r="E215" t="n">
         <v>160</v>
       </c>
       <c r="F215" t="n">
-        <v>11307.4007</v>
+        <v>475</v>
       </c>
       <c r="G215" t="n">
-        <v>156.8333333333335</v>
+        <v>156.6916666666669</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8233,7 +8447,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>161.7</v>
+        <v>160</v>
       </c>
       <c r="C216" t="n">
         <v>161.7</v>
@@ -8242,13 +8456,13 @@
         <v>161.7</v>
       </c>
       <c r="E216" t="n">
-        <v>161.7</v>
+        <v>160</v>
       </c>
       <c r="F216" t="n">
-        <v>4620</v>
+        <v>11307.4007</v>
       </c>
       <c r="G216" t="n">
-        <v>156.9616666666669</v>
+        <v>156.8333333333335</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8272,22 +8486,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>162</v>
+        <v>161.7</v>
       </c>
       <c r="C217" t="n">
-        <v>160.7</v>
+        <v>161.7</v>
       </c>
       <c r="D217" t="n">
-        <v>162.9</v>
+        <v>161.7</v>
       </c>
       <c r="E217" t="n">
-        <v>160.7</v>
+        <v>161.7</v>
       </c>
       <c r="F217" t="n">
-        <v>8482.3706</v>
+        <v>4620</v>
       </c>
       <c r="G217" t="n">
-        <v>157.0733333333336</v>
+        <v>156.9616666666669</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8311,22 +8525,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>162</v>
+      </c>
+      <c r="C218" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="D218" t="n">
         <v>162.9</v>
       </c>
-      <c r="C218" t="n">
-        <v>163</v>
-      </c>
-      <c r="D218" t="n">
-        <v>163</v>
-      </c>
       <c r="E218" t="n">
-        <v>161.2</v>
+        <v>160.7</v>
       </c>
       <c r="F218" t="n">
-        <v>2699.1437</v>
+        <v>8482.3706</v>
       </c>
       <c r="G218" t="n">
-        <v>157.2233333333335</v>
+        <v>157.0733333333336</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8350,22 +8564,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="C219" t="n">
         <v>163</v>
       </c>
-      <c r="C219" t="n">
-        <v>163.5</v>
-      </c>
       <c r="D219" t="n">
-        <v>163.5</v>
+        <v>163</v>
       </c>
       <c r="E219" t="n">
-        <v>163</v>
+        <v>161.2</v>
       </c>
       <c r="F219" t="n">
-        <v>516.8807</v>
+        <v>2699.1437</v>
       </c>
       <c r="G219" t="n">
-        <v>157.3833333333336</v>
+        <v>157.2233333333335</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8389,22 +8603,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>163</v>
+      </c>
+      <c r="C220" t="n">
         <v>163.5</v>
       </c>
-      <c r="C220" t="n">
-        <v>164.2</v>
-      </c>
       <c r="D220" t="n">
-        <v>164.2</v>
+        <v>163.5</v>
       </c>
       <c r="E220" t="n">
-        <v>163.5</v>
+        <v>163</v>
       </c>
       <c r="F220" t="n">
-        <v>903.811</v>
+        <v>516.8807</v>
       </c>
       <c r="G220" t="n">
-        <v>157.5533333333336</v>
+        <v>157.3833333333336</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8428,22 +8642,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="C221" t="n">
         <v>164.2</v>
       </c>
-      <c r="C221" t="n">
-        <v>164.8</v>
-      </c>
       <c r="D221" t="n">
-        <v>164.8</v>
+        <v>164.2</v>
       </c>
       <c r="E221" t="n">
-        <v>164.2</v>
+        <v>163.5</v>
       </c>
       <c r="F221" t="n">
-        <v>5954.4834</v>
+        <v>903.811</v>
       </c>
       <c r="G221" t="n">
-        <v>157.7333333333335</v>
+        <v>157.5533333333336</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8467,7 +8681,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>164.8</v>
+        <v>164.2</v>
       </c>
       <c r="C222" t="n">
         <v>164.8</v>
@@ -8476,60 +8690,66 @@
         <v>164.8</v>
       </c>
       <c r="E222" t="n">
-        <v>164.8</v>
+        <v>164.2</v>
       </c>
       <c r="F222" t="n">
-        <v>2325.8743</v>
+        <v>5954.4834</v>
       </c>
       <c r="G222" t="n">
-        <v>157.9133333333335</v>
+        <v>157.7333333333335</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>164.9</v>
+        <v>164.8</v>
       </c>
       <c r="C223" t="n">
-        <v>164.9</v>
+        <v>164.8</v>
       </c>
       <c r="D223" t="n">
-        <v>164.9</v>
+        <v>164.8</v>
       </c>
       <c r="E223" t="n">
-        <v>164.9</v>
+        <v>164.8</v>
       </c>
       <c r="F223" t="n">
-        <v>10</v>
+        <v>2325.8743</v>
       </c>
       <c r="G223" t="n">
-        <v>158.0933333333335</v>
+        <v>157.9133333333335</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8539,32 +8759,36 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>163.6</v>
+        <v>164.9</v>
       </c>
       <c r="C224" t="n">
-        <v>163.6</v>
+        <v>164.9</v>
       </c>
       <c r="D224" t="n">
-        <v>163.6</v>
+        <v>164.9</v>
       </c>
       <c r="E224" t="n">
-        <v>163.6</v>
+        <v>164.9</v>
       </c>
       <c r="F224" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G224" t="n">
-        <v>158.2516666666669</v>
+        <v>158.0933333333335</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8574,32 +8798,36 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>164.7</v>
+        <v>163.6</v>
       </c>
       <c r="C225" t="n">
-        <v>164.7</v>
+        <v>163.6</v>
       </c>
       <c r="D225" t="n">
-        <v>164.7</v>
+        <v>163.6</v>
       </c>
       <c r="E225" t="n">
-        <v>164.7</v>
+        <v>163.6</v>
       </c>
       <c r="F225" t="n">
-        <v>1201.3604</v>
+        <v>61</v>
       </c>
       <c r="G225" t="n">
-        <v>158.4283333333335</v>
+        <v>158.2516666666669</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8621,10 +8849,10 @@
         <v>164.7</v>
       </c>
       <c r="F226" t="n">
-        <v>202.1006</v>
+        <v>1201.3604</v>
       </c>
       <c r="G226" t="n">
-        <v>158.6050000000002</v>
+        <v>158.4283333333335</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8634,7 +8862,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8644,22 +8876,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>163.6</v>
+        <v>164.7</v>
       </c>
       <c r="C227" t="n">
-        <v>163.6</v>
+        <v>164.7</v>
       </c>
       <c r="D227" t="n">
-        <v>163.6</v>
+        <v>164.7</v>
       </c>
       <c r="E227" t="n">
-        <v>163.6</v>
+        <v>164.7</v>
       </c>
       <c r="F227" t="n">
-        <v>61</v>
+        <v>202.1006</v>
       </c>
       <c r="G227" t="n">
-        <v>158.7616666666669</v>
+        <v>158.6050000000002</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8669,7 +8901,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8679,22 +8915,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>163.7</v>
+        <v>163.6</v>
       </c>
       <c r="C228" t="n">
         <v>163.6</v>
       </c>
       <c r="D228" t="n">
-        <v>163.7</v>
+        <v>163.6</v>
       </c>
       <c r="E228" t="n">
         <v>163.6</v>
       </c>
       <c r="F228" t="n">
-        <v>214.4106</v>
+        <v>61</v>
       </c>
       <c r="G228" t="n">
-        <v>158.9033333333335</v>
+        <v>158.7616666666669</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8704,7 +8940,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8714,22 +8954,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="C229" t="n">
         <v>163.6</v>
       </c>
-      <c r="C229" t="n">
-        <v>163.9</v>
-      </c>
       <c r="D229" t="n">
-        <v>163.9</v>
+        <v>163.7</v>
       </c>
       <c r="E229" t="n">
         <v>163.6</v>
       </c>
       <c r="F229" t="n">
-        <v>224.6197</v>
+        <v>214.4106</v>
       </c>
       <c r="G229" t="n">
-        <v>159.0450000000002</v>
+        <v>158.9033333333335</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8739,7 +8979,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8749,22 +8993,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>164.1</v>
+        <v>163.6</v>
       </c>
       <c r="C230" t="n">
-        <v>164.1</v>
+        <v>163.9</v>
       </c>
       <c r="D230" t="n">
-        <v>164.1</v>
+        <v>163.9</v>
       </c>
       <c r="E230" t="n">
-        <v>164.1</v>
+        <v>163.6</v>
       </c>
       <c r="F230" t="n">
-        <v>5000</v>
+        <v>224.6197</v>
       </c>
       <c r="G230" t="n">
-        <v>159.1900000000002</v>
+        <v>159.0450000000002</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8774,7 +9018,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8784,22 +9032,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>163.7</v>
+        <v>164.1</v>
       </c>
       <c r="C231" t="n">
-        <v>163.6</v>
+        <v>164.1</v>
       </c>
       <c r="D231" t="n">
-        <v>163.7</v>
+        <v>164.1</v>
       </c>
       <c r="E231" t="n">
-        <v>163.6</v>
+        <v>164.1</v>
       </c>
       <c r="F231" t="n">
-        <v>61</v>
+        <v>5000</v>
       </c>
       <c r="G231" t="n">
-        <v>159.3250000000002</v>
+        <v>159.1900000000002</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8809,7 +9057,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8819,22 +9071,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="C232" t="n">
         <v>163.6</v>
       </c>
-      <c r="C232" t="n">
-        <v>163.5</v>
-      </c>
       <c r="D232" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="E232" t="n">
         <v>163.6</v>
       </c>
-      <c r="E232" t="n">
-        <v>163.5</v>
-      </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>61</v>
       </c>
       <c r="G232" t="n">
-        <v>159.4350000000002</v>
+        <v>159.3250000000002</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8844,7 +9096,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8854,22 +9110,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>164.1</v>
+        <v>163.6</v>
       </c>
       <c r="C233" t="n">
-        <v>164.1</v>
+        <v>163.5</v>
       </c>
       <c r="D233" t="n">
-        <v>164.1</v>
+        <v>163.6</v>
       </c>
       <c r="E233" t="n">
-        <v>164.1</v>
+        <v>163.5</v>
       </c>
       <c r="F233" t="n">
-        <v>68.633</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="n">
-        <v>159.5550000000002</v>
+        <v>159.4350000000002</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8879,7 +9135,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8889,22 +9149,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>164.7</v>
+        <v>164.1</v>
       </c>
       <c r="C234" t="n">
-        <v>164.9</v>
+        <v>164.1</v>
       </c>
       <c r="D234" t="n">
-        <v>164.9</v>
+        <v>164.1</v>
       </c>
       <c r="E234" t="n">
-        <v>164.7</v>
+        <v>164.1</v>
       </c>
       <c r="F234" t="n">
-        <v>5011.0922</v>
+        <v>68.633</v>
       </c>
       <c r="G234" t="n">
-        <v>159.6883333333336</v>
+        <v>159.5550000000002</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8914,7 +9174,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8924,22 +9188,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>165</v>
+        <v>164.7</v>
       </c>
       <c r="C235" t="n">
-        <v>165.3</v>
+        <v>164.9</v>
       </c>
       <c r="D235" t="n">
-        <v>165.3</v>
+        <v>164.9</v>
       </c>
       <c r="E235" t="n">
-        <v>165</v>
+        <v>164.7</v>
       </c>
       <c r="F235" t="n">
-        <v>11090.522</v>
+        <v>5011.0922</v>
       </c>
       <c r="G235" t="n">
-        <v>159.8333333333335</v>
+        <v>159.6883333333336</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8949,7 +9213,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8959,22 +9227,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C236" t="n">
-        <v>166</v>
+        <v>165.3</v>
       </c>
       <c r="D236" t="n">
-        <v>166</v>
+        <v>165.3</v>
       </c>
       <c r="E236" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F236" t="n">
-        <v>3143.1129</v>
+        <v>11090.522</v>
       </c>
       <c r="G236" t="n">
-        <v>159.9833333333335</v>
+        <v>159.8333333333335</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8984,7 +9252,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8994,22 +9266,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C237" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D237" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E237" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F237" t="n">
-        <v>783.2349</v>
+        <v>3143.1129</v>
       </c>
       <c r="G237" t="n">
-        <v>160.1550000000002</v>
+        <v>159.9833333333335</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9019,8 +9291,51 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>167</v>
+      </c>
+      <c r="C238" t="n">
+        <v>167</v>
+      </c>
+      <c r="D238" t="n">
+        <v>167</v>
+      </c>
+      <c r="E238" t="n">
+        <v>167</v>
+      </c>
+      <c r="F238" t="n">
+        <v>783.2349</v>
+      </c>
+      <c r="G238" t="n">
+        <v>160.1550000000002</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ICX.xlsx
+++ b/BackTest/2020-01-16 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1325.5331</v>
       </c>
       <c r="G2" t="n">
+        <v>153.1933333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>152.8233333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>6164.9115</v>
       </c>
       <c r="G3" t="n">
+        <v>153.1599999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>152.8633333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1290.997363677419</v>
       </c>
       <c r="G4" t="n">
+        <v>153.2266666666665</v>
+      </c>
+      <c r="H4" t="n">
         <v>152.9283333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>10380.3776</v>
       </c>
       <c r="G5" t="n">
+        <v>153.2133333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>152.9416666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>17.9243</v>
       </c>
       <c r="G6" t="n">
+        <v>153.2666666666665</v>
+      </c>
+      <c r="H6" t="n">
         <v>152.9716666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>31564.3028</v>
       </c>
       <c r="G7" t="n">
+        <v>153.3799999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>153.0166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>513.6457</v>
       </c>
       <c r="G8" t="n">
+        <v>153.5066666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>153.0616666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4993.0861</v>
       </c>
       <c r="G9" t="n">
+        <v>153.6466666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>153.1083333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>332.4971</v>
       </c>
       <c r="G10" t="n">
+        <v>153.7733333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>153.175</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>125</v>
       </c>
       <c r="G11" t="n">
+        <v>153.8266666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>153.2183333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>816.2854</v>
       </c>
       <c r="G12" t="n">
+        <v>153.8799999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>153.2816666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>560.5423</v>
       </c>
       <c r="G13" t="n">
+        <v>153.9466666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>153.325</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>3292.1892</v>
       </c>
       <c r="G14" t="n">
+        <v>153.8533333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>153.32</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>17074.9735</v>
       </c>
       <c r="G15" t="n">
+        <v>153.7133333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>153.2916666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>347.6928</v>
       </c>
       <c r="G16" t="n">
+        <v>153.6733333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>153.2866666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1147.7591</v>
       </c>
       <c r="G17" t="n">
+        <v>153.6399999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>153.2983333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>215</v>
       </c>
       <c r="G18" t="n">
+        <v>153.6866666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>153.3466666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>36930</v>
       </c>
       <c r="G19" t="n">
+        <v>153.5666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>153.3766666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>250</v>
       </c>
       <c r="G20" t="n">
+        <v>153.5199999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>153.4116666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>38073</v>
       </c>
       <c r="G21" t="n">
+        <v>153.4733333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>153.4466666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>9828.069600000001</v>
       </c>
       <c r="G22" t="n">
+        <v>153.3933333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>153.4716666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>912.1307</v>
       </c>
       <c r="G23" t="n">
+        <v>153.3533333333332</v>
+      </c>
+      <c r="H23" t="n">
         <v>153.5183333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>600.9688</v>
       </c>
       <c r="G24" t="n">
+        <v>153.3266666666665</v>
+      </c>
+      <c r="H24" t="n">
         <v>153.5316666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2015.185</v>
       </c>
       <c r="G25" t="n">
+        <v>153.3866666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>153.5566666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>30551.6227</v>
       </c>
       <c r="G26" t="n">
+        <v>153.5133333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>153.58</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>227.1399</v>
       </c>
       <c r="G27" t="n">
+        <v>153.6399999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>153.6300000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>5334.2138</v>
       </c>
       <c r="G28" t="n">
+        <v>153.7599999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>153.6550000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>454.0705363225807</v>
       </c>
       <c r="G29" t="n">
+        <v>154.0199999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>153.7266666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>924.6042</v>
       </c>
       <c r="G30" t="n">
+        <v>154.2866666666665</v>
+      </c>
+      <c r="H30" t="n">
         <v>153.7683333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>50296.6824</v>
       </c>
       <c r="G31" t="n">
+        <v>154.4999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>153.8033333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>741</v>
       </c>
       <c r="G32" t="n">
+        <v>154.6933333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>153.835</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>389.8735</v>
       </c>
       <c r="G33" t="n">
+        <v>154.8199999999999</v>
+      </c>
+      <c r="H33" t="n">
         <v>153.87</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>7280.5783</v>
       </c>
       <c r="G34" t="n">
+        <v>155.0066666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>153.9083333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1289.01</v>
       </c>
       <c r="G35" t="n">
+        <v>155.1333333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>153.9466666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>84.42489999999999</v>
       </c>
       <c r="G36" t="n">
+        <v>155.2666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>154.005</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>55207.6598</v>
       </c>
       <c r="G37" t="n">
+        <v>155.4066666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>154.045</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1706.385</v>
       </c>
       <c r="G38" t="n">
+        <v>155.4399999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>154.08</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4800</v>
       </c>
       <c r="G39" t="n">
+        <v>155.4333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>154.09</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>7214.325</v>
       </c>
       <c r="G40" t="n">
+        <v>155.3666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>154.1066666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>6646.3025</v>
       </c>
       <c r="G41" t="n">
+        <v>155.3066666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>154.1216666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>2373.81</v>
       </c>
       <c r="G42" t="n">
+        <v>155.2466666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>154.1033333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>2120.165</v>
       </c>
       <c r="G43" t="n">
+        <v>155.1399999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>154.0916666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>6931.7765</v>
       </c>
       <c r="G44" t="n">
+        <v>155.0333333333332</v>
+      </c>
+      <c r="H44" t="n">
         <v>154.0883333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>19737.8295</v>
       </c>
       <c r="G45" t="n">
+        <v>154.9266666666665</v>
+      </c>
+      <c r="H45" t="n">
         <v>154.0666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>4794.4789</v>
       </c>
       <c r="G46" t="n">
+        <v>154.7199999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>154.0333333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>493.02</v>
       </c>
       <c r="G47" t="n">
+        <v>154.5199999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>154.0116666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>12166.82</v>
       </c>
       <c r="G48" t="n">
+        <v>154.3066666666665</v>
+      </c>
+      <c r="H48" t="n">
         <v>153.9933333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>7002</v>
       </c>
       <c r="G49" t="n">
+        <v>154.0999999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>153.975</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>8692</v>
       </c>
       <c r="G50" t="n">
+        <v>153.8933333333332</v>
+      </c>
+      <c r="H50" t="n">
         <v>153.94</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>18303</v>
       </c>
       <c r="G51" t="n">
+        <v>153.6799999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>153.9216666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>4075</v>
       </c>
       <c r="G52" t="n">
+        <v>153.4866666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>153.9166666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>27188.5399</v>
       </c>
       <c r="G53" t="n">
+        <v>153.3599999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>153.915</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>78002.8363</v>
       </c>
       <c r="G54" t="n">
+        <v>153.2533333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>153.915</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>12998.6447</v>
       </c>
       <c r="G55" t="n">
+        <v>153.0866666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>153.9033333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>53810</v>
       </c>
       <c r="G56" t="n">
+        <v>153.0999999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>153.9366666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1000.6054</v>
       </c>
       <c r="G57" t="n">
+        <v>152.9999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>153.9416666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2242.8595</v>
       </c>
       <c r="G58" t="n">
+        <v>152.8533333333332</v>
+      </c>
+      <c r="H58" t="n">
         <v>153.9249999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>103.844</v>
       </c>
       <c r="G59" t="n">
+        <v>152.6066666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>153.8783333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>19948.9838</v>
       </c>
       <c r="G60" t="n">
+        <v>152.3599999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>153.8216666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>5011.76</v>
       </c>
       <c r="G61" t="n">
+        <v>152.0933333333332</v>
+      </c>
+      <c r="H61" t="n">
         <v>153.7466666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,22 +2733,21 @@
         <v>226</v>
       </c>
       <c r="G62" t="n">
+        <v>151.8999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>153.6883333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>149</v>
-      </c>
-      <c r="K62" t="n">
-        <v>149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,26 +2771,21 @@
         <v>209</v>
       </c>
       <c r="G63" t="n">
+        <v>151.7066666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>153.63</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>150</v>
-      </c>
-      <c r="K63" t="n">
-        <v>149</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,26 +2809,21 @@
         <v>17629.2771</v>
       </c>
       <c r="G64" t="n">
+        <v>151.5133333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>153.5466666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>150</v>
-      </c>
-      <c r="K64" t="n">
-        <v>149</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,22 +2847,21 @@
         <v>305.9407</v>
       </c>
       <c r="G65" t="n">
+        <v>151.4466666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>153.4983333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>150</v>
-      </c>
-      <c r="K65" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,26 +2885,21 @@
         <v>950</v>
       </c>
       <c r="G66" t="n">
+        <v>151.3599999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>153.445</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="K66" t="n">
-        <v>150</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2755,24 +2923,21 @@
         <v>2347.2862</v>
       </c>
       <c r="G67" t="n">
+        <v>151.3133333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>153.4</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>150</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,18 +2961,21 @@
         <v>1253.5644</v>
       </c>
       <c r="G68" t="n">
+        <v>151.2466666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>153.35</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2831,18 +2999,21 @@
         <v>2784.6955</v>
       </c>
       <c r="G69" t="n">
+        <v>151.1933333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>153.3016666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,18 +3037,21 @@
         <v>548.3758</v>
       </c>
       <c r="G70" t="n">
+        <v>151.2399999999998</v>
+      </c>
+      <c r="H70" t="n">
         <v>153.27</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2901,24 +3075,21 @@
         <v>527.3495</v>
       </c>
       <c r="G71" t="n">
+        <v>151.0066666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>153.2316666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>152.2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2942,22 +3113,21 @@
         <v>2372.7988</v>
       </c>
       <c r="G72" t="n">
+        <v>150.9733333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>153.215</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2981,24 +3151,21 @@
         <v>2480.3475</v>
       </c>
       <c r="G73" t="n">
+        <v>151.0533333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>153.2016666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,22 +3189,21 @@
         <v>3085.03</v>
       </c>
       <c r="G74" t="n">
+        <v>151.2999999999998</v>
+      </c>
+      <c r="H74" t="n">
         <v>153.2400000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3061,22 +3227,21 @@
         <v>4120.3913</v>
       </c>
       <c r="G75" t="n">
+        <v>151.5933333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>153.2916666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,22 +3265,21 @@
         <v>4163.3488</v>
       </c>
       <c r="G76" t="n">
+        <v>151.9599999999998</v>
+      </c>
+      <c r="H76" t="n">
         <v>153.3183333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3139,22 +3303,21 @@
         <v>469.2287</v>
       </c>
       <c r="G77" t="n">
+        <v>152.3266666666665</v>
+      </c>
+      <c r="H77" t="n">
         <v>153.3600000000001</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,22 +3341,21 @@
         <v>615.8323</v>
       </c>
       <c r="G78" t="n">
+        <v>152.6999999999998</v>
+      </c>
+      <c r="H78" t="n">
         <v>153.3833333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3217,22 +3379,21 @@
         <v>954.4184</v>
       </c>
       <c r="G79" t="n">
+        <v>153.0599999999998</v>
+      </c>
+      <c r="H79" t="n">
         <v>153.42</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3256,22 +3417,21 @@
         <v>1943.8645</v>
       </c>
       <c r="G80" t="n">
+        <v>153.2999999999998</v>
+      </c>
+      <c r="H80" t="n">
         <v>153.4433333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3295,22 +3455,21 @@
         <v>5662.5687</v>
       </c>
       <c r="G81" t="n">
+        <v>153.5666666666665</v>
+      </c>
+      <c r="H81" t="n">
         <v>153.4683333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,22 +3493,21 @@
         <v>16385.6706</v>
       </c>
       <c r="G82" t="n">
+        <v>153.6933333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>153.475</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,22 +3531,21 @@
         <v>13065.0956</v>
       </c>
       <c r="G83" t="n">
+        <v>153.8399999999998</v>
+      </c>
+      <c r="H83" t="n">
         <v>153.4716666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,22 +3569,21 @@
         <v>375</v>
       </c>
       <c r="G84" t="n">
+        <v>153.9733333333332</v>
+      </c>
+      <c r="H84" t="n">
         <v>153.4633333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3451,22 +3607,21 @@
         <v>36529.9225</v>
       </c>
       <c r="G85" t="n">
+        <v>154.0999999999998</v>
+      </c>
+      <c r="H85" t="n">
         <v>153.4483333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3490,22 +3645,21 @@
         <v>6530.31</v>
       </c>
       <c r="G86" t="n">
+        <v>154.3133333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>153.4316666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3529,22 +3683,21 @@
         <v>5669</v>
       </c>
       <c r="G87" t="n">
+        <v>154.4533333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>153.4183333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,22 +3721,21 @@
         <v>610</v>
       </c>
       <c r="G88" t="n">
+        <v>154.6533333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>153.4250000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,22 +3759,21 @@
         <v>2366.907</v>
       </c>
       <c r="G89" t="n">
+        <v>154.7533333333332</v>
+      </c>
+      <c r="H89" t="n">
         <v>153.4233333333335</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,22 +3797,21 @@
         <v>714.2142</v>
       </c>
       <c r="G90" t="n">
+        <v>154.8133333333332</v>
+      </c>
+      <c r="H90" t="n">
         <v>153.4233333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,22 +3835,21 @@
         <v>5009.4528</v>
       </c>
       <c r="G91" t="n">
+        <v>154.8599999999998</v>
+      </c>
+      <c r="H91" t="n">
         <v>153.4083333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,22 +3873,21 @@
         <v>12762.6618</v>
       </c>
       <c r="G92" t="n">
+        <v>154.7199999999998</v>
+      </c>
+      <c r="H92" t="n">
         <v>153.3666666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,22 +3911,21 @@
         <v>2416.558</v>
       </c>
       <c r="G93" t="n">
+        <v>154.6933333333332</v>
+      </c>
+      <c r="H93" t="n">
         <v>153.3516666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,22 +3949,21 @@
         <v>810.2430000000001</v>
       </c>
       <c r="G94" t="n">
+        <v>154.6933333333332</v>
+      </c>
+      <c r="H94" t="n">
         <v>153.3416666666668</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3841,22 +3987,21 @@
         <v>295.0885</v>
       </c>
       <c r="G95" t="n">
+        <v>154.6933333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>153.3333333333335</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,22 +4025,21 @@
         <v>4599.3297</v>
       </c>
       <c r="G96" t="n">
+        <v>154.6866666666665</v>
+      </c>
+      <c r="H96" t="n">
         <v>153.3233333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3919,22 +4063,21 @@
         <v>2115.9547</v>
       </c>
       <c r="G97" t="n">
+        <v>154.7799999999998</v>
+      </c>
+      <c r="H97" t="n">
         <v>153.3183333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,22 +4101,21 @@
         <v>2025.6521</v>
       </c>
       <c r="G98" t="n">
+        <v>154.8799999999998</v>
+      </c>
+      <c r="H98" t="n">
         <v>153.3316666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,22 +4139,21 @@
         <v>625</v>
       </c>
       <c r="G99" t="n">
+        <v>154.9799999999998</v>
+      </c>
+      <c r="H99" t="n">
         <v>153.3500000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,22 +4177,21 @@
         <v>1850</v>
       </c>
       <c r="G100" t="n">
+        <v>155.0799999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>153.3766666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,22 +4215,21 @@
         <v>3388</v>
       </c>
       <c r="G101" t="n">
+        <v>155.2399999999998</v>
+      </c>
+      <c r="H101" t="n">
         <v>153.4150000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,22 +4253,21 @@
         <v>125</v>
       </c>
       <c r="G102" t="n">
+        <v>155.4266666666665</v>
+      </c>
+      <c r="H102" t="n">
         <v>153.4633333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4153,22 +4291,21 @@
         <v>539.1617</v>
       </c>
       <c r="G103" t="n">
+        <v>155.5466666666665</v>
+      </c>
+      <c r="H103" t="n">
         <v>153.5266666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,22 +4329,21 @@
         <v>4166.2121</v>
       </c>
       <c r="G104" t="n">
+        <v>155.6999999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>153.5900000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,22 +4367,21 @@
         <v>838.5017</v>
       </c>
       <c r="G105" t="n">
+        <v>155.8466666666665</v>
+      </c>
+      <c r="H105" t="n">
         <v>153.6533333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,22 +4405,21 @@
         <v>700</v>
       </c>
       <c r="G106" t="n">
+        <v>155.9199999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>153.7083333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4309,22 +4443,21 @@
         <v>560</v>
       </c>
       <c r="G107" t="n">
+        <v>156.2599999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>153.8016666666668</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,22 +4481,21 @@
         <v>1206.3099</v>
       </c>
       <c r="G108" t="n">
+        <v>156.4799999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>153.8950000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4387,22 +4519,21 @@
         <v>5877.5911</v>
       </c>
       <c r="G109" t="n">
+        <v>156.7799999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>154.0116666666668</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,22 +4557,23 @@
         <v>2067.3501</v>
       </c>
       <c r="G110" t="n">
+        <v>157.0533333333332</v>
+      </c>
+      <c r="H110" t="n">
         <v>154.1233333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4463,18 +4595,21 @@
         <v>414.6387</v>
       </c>
       <c r="G111" t="n">
+        <v>157.3333333333332</v>
+      </c>
+      <c r="H111" t="n">
         <v>154.2366666666668</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,18 +4633,21 @@
         <v>5903.125</v>
       </c>
       <c r="G112" t="n">
+        <v>157.6133333333332</v>
+      </c>
+      <c r="H112" t="n">
         <v>154.3500000000002</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4533,18 +4671,21 @@
         <v>31111.56</v>
       </c>
       <c r="G113" t="n">
+        <v>157.8666666666665</v>
+      </c>
+      <c r="H113" t="n">
         <v>154.4583333333335</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4568,18 +4709,21 @@
         <v>7668.365</v>
       </c>
       <c r="G114" t="n">
+        <v>158.1199999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>154.5666666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4603,18 +4747,21 @@
         <v>6651.4075</v>
       </c>
       <c r="G115" t="n">
+        <v>158.3733333333332</v>
+      </c>
+      <c r="H115" t="n">
         <v>154.6983333333335</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,18 +4785,21 @@
         <v>125</v>
       </c>
       <c r="G116" t="n">
+        <v>158.5799999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>154.7850000000001</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,18 +4823,21 @@
         <v>1625</v>
       </c>
       <c r="G117" t="n">
+        <v>158.7466666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>154.9000000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4708,18 +4861,21 @@
         <v>14784.7915</v>
       </c>
       <c r="G118" t="n">
+        <v>158.9066666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>155.0400000000001</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,18 +4899,21 @@
         <v>2450.95</v>
       </c>
       <c r="G119" t="n">
+        <v>159.0333333333332</v>
+      </c>
+      <c r="H119" t="n">
         <v>155.1966666666668</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,18 +4937,21 @@
         <v>13895.7439</v>
       </c>
       <c r="G120" t="n">
+        <v>159.1599999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>155.3533333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,18 +4975,21 @@
         <v>6850</v>
       </c>
       <c r="G121" t="n">
+        <v>159.2799999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>155.5050000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,18 +5013,21 @@
         <v>669</v>
       </c>
       <c r="G122" t="n">
+        <v>159.2066666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>155.6283333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,18 +5051,21 @@
         <v>290</v>
       </c>
       <c r="G123" t="n">
+        <v>159.1333333333332</v>
+      </c>
+      <c r="H123" t="n">
         <v>155.7516666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,18 +5089,21 @@
         <v>125</v>
       </c>
       <c r="G124" t="n">
+        <v>158.8733333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>155.8516666666668</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4953,18 +5127,21 @@
         <v>332.8653</v>
       </c>
       <c r="G125" t="n">
+        <v>158.5999999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>155.9116666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,18 +5165,21 @@
         <v>41.9149</v>
       </c>
       <c r="G126" t="n">
+        <v>158.4999999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>156.0216666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5023,18 +5203,21 @@
         <v>202.1095</v>
       </c>
       <c r="G127" t="n">
+        <v>158.2266666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>156.0783333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5058,18 +5241,21 @@
         <v>337.7294</v>
       </c>
       <c r="G128" t="n">
+        <v>157.9733333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>156.1400000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5093,18 +5279,21 @@
         <v>1964.765</v>
       </c>
       <c r="G129" t="n">
+        <v>157.7133333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>156.1966666666668</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,18 +5317,21 @@
         <v>6888.4942</v>
       </c>
       <c r="G130" t="n">
+        <v>157.4533333333332</v>
+      </c>
+      <c r="H130" t="n">
         <v>156.2516666666668</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5163,18 +5355,21 @@
         <v>1903.5518</v>
       </c>
       <c r="G131" t="n">
+        <v>157.1933333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>156.3316666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,18 +5393,25 @@
         <v>8457.8163</v>
       </c>
       <c r="G132" t="n">
+        <v>156.9333333333332</v>
+      </c>
+      <c r="H132" t="n">
         <v>156.3900000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="L132" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5233,18 +5435,27 @@
         <v>4218.56</v>
       </c>
       <c r="G133" t="n">
+        <v>156.6733333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>156.4450000000001</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,18 +5479,27 @@
         <v>1111.33</v>
       </c>
       <c r="G134" t="n">
+        <v>156.4133333333332</v>
+      </c>
+      <c r="H134" t="n">
         <v>156.4750000000001</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5303,18 +5523,27 @@
         <v>5953.1141</v>
       </c>
       <c r="G135" t="n">
+        <v>156.1533333333332</v>
+      </c>
+      <c r="H135" t="n">
         <v>156.4933333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,18 +5567,27 @@
         <v>626.5723</v>
       </c>
       <c r="G136" t="n">
+        <v>155.8133333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>156.4683333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5373,18 +5611,29 @@
         <v>660.5223</v>
       </c>
       <c r="G137" t="n">
+        <v>155.5199999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>156.4266666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>153</v>
+      </c>
+      <c r="L137" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,18 +5657,29 @@
         <v>199</v>
       </c>
       <c r="G138" t="n">
+        <v>155.1599999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>156.3666666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>153</v>
+      </c>
+      <c r="L138" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,24 +5703,29 @@
         <v>11031.0627</v>
       </c>
       <c r="G139" t="n">
+        <v>154.8466666666665</v>
+      </c>
+      <c r="H139" t="n">
         <v>156.2983333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
         <v>152</v>
       </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5484,24 +5749,29 @@
         <v>158.3582</v>
       </c>
       <c r="G140" t="n">
+        <v>154.5666666666665</v>
+      </c>
+      <c r="H140" t="n">
         <v>156.2283333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
         <v>151.3</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="L140" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5525,24 +5795,29 @@
         <v>7804.1622</v>
       </c>
       <c r="G141" t="n">
+        <v>154.1066666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>156.1566666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
         <v>151.3</v>
       </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="L141" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5566,24 +5841,29 @@
         <v>632.5339</v>
       </c>
       <c r="G142" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>156.1383333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
         <v>151.3</v>
       </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="L142" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5607,22 +5887,29 @@
         <v>58458.98</v>
       </c>
       <c r="G143" t="n">
+        <v>153.7666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>156.1216666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>153</v>
+      </c>
+      <c r="L143" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,22 +5933,27 @@
         <v>322.1542</v>
       </c>
       <c r="G144" t="n">
+        <v>153.5999999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>156.1033333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="L144" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5685,22 +5977,27 @@
         <v>322</v>
       </c>
       <c r="G145" t="n">
+        <v>153.4333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>156.085</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="L145" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5724,22 +6021,27 @@
         <v>290.2595</v>
       </c>
       <c r="G146" t="n">
+        <v>153.2266666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>156.06</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="L146" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5763,22 +6065,27 @@
         <v>224</v>
       </c>
       <c r="G147" t="n">
+        <v>153.0133333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>156.03</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="L147" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,22 +6109,27 @@
         <v>231.4878</v>
       </c>
       <c r="G148" t="n">
+        <v>152.7799999999999</v>
+      </c>
+      <c r="H148" t="n">
         <v>155.9766666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="L148" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5841,22 +6153,27 @@
         <v>13623.77</v>
       </c>
       <c r="G149" t="n">
+        <v>152.4799999999999</v>
+      </c>
+      <c r="H149" t="n">
         <v>155.9066666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="L149" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,24 +6197,27 @@
         <v>2416.4928</v>
       </c>
       <c r="G150" t="n">
+        <v>152.1799999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>155.835</v>
       </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="L150" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5921,22 +6241,27 @@
         <v>231.4879</v>
       </c>
       <c r="G151" t="n">
+        <v>152.0466666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>155.765</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L151" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5960,24 +6285,27 @@
         <v>526.0789</v>
       </c>
       <c r="G152" t="n">
+        <v>151.9799999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>155.7416666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="L152" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6001,22 +6329,27 @@
         <v>277.2649</v>
       </c>
       <c r="G153" t="n">
+        <v>152.0066666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>155.695</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L153" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6040,24 +6373,27 @@
         <v>647.6684</v>
       </c>
       <c r="G154" t="n">
+        <v>152.1266666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>155.6566666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>152.4</v>
+        <v>0</v>
       </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L154" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6081,24 +6417,27 @@
         <v>219.3558</v>
       </c>
       <c r="G155" t="n">
+        <v>152.2199999999999</v>
+      </c>
+      <c r="H155" t="n">
         <v>155.61</v>
       </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>153.1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L155" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6122,22 +6461,27 @@
         <v>1655</v>
       </c>
       <c r="G156" t="n">
+        <v>152.3466666666665</v>
+      </c>
+      <c r="H156" t="n">
         <v>155.5716666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="L156" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6161,22 +6505,27 @@
         <v>5170.6342</v>
       </c>
       <c r="G157" t="n">
+        <v>152.4133333333332</v>
+      </c>
+      <c r="H157" t="n">
         <v>155.5466666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="L157" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6200,22 +6549,27 @@
         <v>3499.9999</v>
       </c>
       <c r="G158" t="n">
+        <v>152.4733333333332</v>
+      </c>
+      <c r="H158" t="n">
         <v>155.52</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="L158" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,22 +6593,27 @@
         <v>1000.3</v>
       </c>
       <c r="G159" t="n">
+        <v>152.5399999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>155.4933333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,22 +6637,27 @@
         <v>355.4844</v>
       </c>
       <c r="G160" t="n">
+        <v>152.5999999999999</v>
+      </c>
+      <c r="H160" t="n">
         <v>155.465</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L160" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6317,22 +6681,27 @@
         <v>1283.0689</v>
       </c>
       <c r="G161" t="n">
+        <v>152.7066666666665</v>
+      </c>
+      <c r="H161" t="n">
         <v>155.4266666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L161" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,22 +6725,27 @@
         <v>459.7185</v>
       </c>
       <c r="G162" t="n">
+        <v>152.8199999999999</v>
+      </c>
+      <c r="H162" t="n">
         <v>155.3783333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L162" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6395,22 +6769,27 @@
         <v>0.0001</v>
       </c>
       <c r="G163" t="n">
+        <v>152.9533333333332</v>
+      </c>
+      <c r="H163" t="n">
         <v>155.3283333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L163" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,22 +6813,27 @@
         <v>130</v>
       </c>
       <c r="G164" t="n">
+        <v>153.1599999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>155.2716666666666</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L164" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6473,22 +6857,27 @@
         <v>40</v>
       </c>
       <c r="G165" t="n">
+        <v>153.3666666666665</v>
+      </c>
+      <c r="H165" t="n">
         <v>155.215</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L165" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6512,22 +6901,27 @@
         <v>2054.6163</v>
       </c>
       <c r="G166" t="n">
+        <v>153.5733333333332</v>
+      </c>
+      <c r="H166" t="n">
         <v>155.1783333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L166" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6551,22 +6945,27 @@
         <v>1287.3861</v>
       </c>
       <c r="G167" t="n">
+        <v>153.7133333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>155.105</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L167" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6590,22 +6989,27 @@
         <v>282.2644</v>
       </c>
       <c r="G168" t="n">
+        <v>153.8333333333331</v>
+      </c>
+      <c r="H168" t="n">
         <v>155.0333333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L168" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6629,22 +7033,27 @@
         <v>4200</v>
       </c>
       <c r="G169" t="n">
+        <v>153.9666666666665</v>
+      </c>
+      <c r="H169" t="n">
         <v>154.9533333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L169" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,22 +7077,27 @@
         <v>527.9533</v>
       </c>
       <c r="G170" t="n">
+        <v>154.1466666666665</v>
+      </c>
+      <c r="H170" t="n">
         <v>154.8833333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L170" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6707,22 +7121,27 @@
         <v>197.5688</v>
       </c>
       <c r="G171" t="n">
+        <v>154.2933333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>154.8116666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L171" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6746,22 +7165,27 @@
         <v>71.6828</v>
       </c>
       <c r="G172" t="n">
+        <v>154.3933333333332</v>
+      </c>
+      <c r="H172" t="n">
         <v>154.7416666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L172" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6785,22 +7209,27 @@
         <v>369.9916</v>
       </c>
       <c r="G173" t="n">
+        <v>154.5866666666665</v>
+      </c>
+      <c r="H173" t="n">
         <v>154.7</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6824,22 +7253,27 @@
         <v>1957.5038</v>
       </c>
       <c r="G174" t="n">
+        <v>154.7799999999999</v>
+      </c>
+      <c r="H174" t="n">
         <v>154.6583333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6863,22 +7297,27 @@
         <v>1150</v>
       </c>
       <c r="G175" t="n">
+        <v>154.9799999999999</v>
+      </c>
+      <c r="H175" t="n">
         <v>154.6166666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6902,22 +7341,27 @@
         <v>8.583</v>
       </c>
       <c r="G176" t="n">
+        <v>155.1533333333332</v>
+      </c>
+      <c r="H176" t="n">
         <v>154.57</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,22 +7385,27 @@
         <v>1553.288</v>
       </c>
       <c r="G177" t="n">
+        <v>155.3533333333332</v>
+      </c>
+      <c r="H177" t="n">
         <v>154.53</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L177" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6980,22 +7429,27 @@
         <v>1286.9062</v>
       </c>
       <c r="G178" t="n">
+        <v>155.5333333333332</v>
+      </c>
+      <c r="H178" t="n">
         <v>154.485</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L178" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7019,22 +7473,27 @@
         <v>643.4530999999999</v>
       </c>
       <c r="G179" t="n">
+        <v>155.7199999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>154.4433333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7058,22 +7517,27 @@
         <v>0.0001</v>
       </c>
       <c r="G180" t="n">
+        <v>155.9133333333332</v>
+      </c>
+      <c r="H180" t="n">
         <v>154.4033333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L180" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,22 +7561,27 @@
         <v>1118.4532</v>
       </c>
       <c r="G181" t="n">
+        <v>156.2333333333332</v>
+      </c>
+      <c r="H181" t="n">
         <v>154.4166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7136,22 +7605,27 @@
         <v>358.5202</v>
       </c>
       <c r="G182" t="n">
+        <v>156.4333333333332</v>
+      </c>
+      <c r="H182" t="n">
         <v>154.4116666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="L182" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7175,22 +7649,27 @@
         <v>1286.9062</v>
       </c>
       <c r="G183" t="n">
+        <v>156.5666666666665</v>
+      </c>
+      <c r="H183" t="n">
         <v>154.3916666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L183" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7214,22 +7693,27 @@
         <v>1286.9063</v>
       </c>
       <c r="G184" t="n">
+        <v>156.6333333333332</v>
+      </c>
+      <c r="H184" t="n">
         <v>154.3933333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L184" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7253,22 +7737,27 @@
         <v>1000</v>
       </c>
       <c r="G185" t="n">
+        <v>156.6866666666665</v>
+      </c>
+      <c r="H185" t="n">
         <v>154.4050000000001</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L185" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7292,22 +7781,27 @@
         <v>1856.5999</v>
       </c>
       <c r="G186" t="n">
+        <v>156.6999999999998</v>
+      </c>
+      <c r="H186" t="n">
         <v>154.3616666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7331,22 +7825,27 @@
         <v>2215.8552</v>
       </c>
       <c r="G187" t="n">
+        <v>156.7333333333332</v>
+      </c>
+      <c r="H187" t="n">
         <v>154.3683333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L187" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7370,22 +7869,27 @@
         <v>2275.2697</v>
       </c>
       <c r="G188" t="n">
+        <v>156.7533333333332</v>
+      </c>
+      <c r="H188" t="n">
         <v>154.3950000000001</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="L188" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7409,22 +7913,27 @@
         <v>10583.1223</v>
       </c>
       <c r="G189" t="n">
+        <v>156.7999999999998</v>
+      </c>
+      <c r="H189" t="n">
         <v>154.4300000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="L189" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,22 +7957,27 @@
         <v>3747.9864</v>
       </c>
       <c r="G190" t="n">
+        <v>156.8466666666665</v>
+      </c>
+      <c r="H190" t="n">
         <v>154.4650000000001</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="L190" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7487,22 +8001,27 @@
         <v>641.88</v>
       </c>
       <c r="G191" t="n">
+        <v>156.9133333333331</v>
+      </c>
+      <c r="H191" t="n">
         <v>154.5000000000001</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="L191" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7526,22 +8045,27 @@
         <v>125</v>
       </c>
       <c r="G192" t="n">
+        <v>156.9533333333331</v>
+      </c>
+      <c r="H192" t="n">
         <v>154.5350000000001</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="L192" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7565,22 +8089,27 @@
         <v>250</v>
       </c>
       <c r="G193" t="n">
+        <v>157.0133333333332</v>
+      </c>
+      <c r="H193" t="n">
         <v>154.5700000000001</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="L193" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,22 +8133,27 @@
         <v>1974.1654</v>
       </c>
       <c r="G194" t="n">
+        <v>157.0599999999998</v>
+      </c>
+      <c r="H194" t="n">
         <v>154.6050000000001</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="L194" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7643,22 +8177,27 @@
         <v>475.6801</v>
       </c>
       <c r="G195" t="n">
+        <v>157.1733333333331</v>
+      </c>
+      <c r="H195" t="n">
         <v>154.6583333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="L195" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7682,22 +8221,27 @@
         <v>630.1198000000001</v>
       </c>
       <c r="G196" t="n">
+        <v>157.1599999999998</v>
+      </c>
+      <c r="H196" t="n">
         <v>154.7533333333335</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="L196" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7721,22 +8265,27 @@
         <v>42.4315</v>
       </c>
       <c r="G197" t="n">
+        <v>157.2133333333331</v>
+      </c>
+      <c r="H197" t="n">
         <v>154.8350000000001</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="L197" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7760,22 +8309,27 @@
         <v>693.9736</v>
       </c>
       <c r="G198" t="n">
+        <v>157.3266666666665</v>
+      </c>
+      <c r="H198" t="n">
         <v>154.9333333333335</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="L198" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7799,22 +8353,27 @@
         <v>107.6942</v>
       </c>
       <c r="G199" t="n">
+        <v>157.3866666666665</v>
+      </c>
+      <c r="H199" t="n">
         <v>155.0283333333335</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="L199" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7838,22 +8397,27 @@
         <v>6670.5669</v>
       </c>
       <c r="G200" t="n">
+        <v>157.4733333333332</v>
+      </c>
+      <c r="H200" t="n">
         <v>155.1316666666668</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="L200" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7877,22 +8441,27 @@
         <v>5999.9999</v>
       </c>
       <c r="G201" t="n">
+        <v>157.5866666666665</v>
+      </c>
+      <c r="H201" t="n">
         <v>155.2316666666668</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="L201" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7916,22 +8485,27 @@
         <v>702.9269</v>
       </c>
       <c r="G202" t="n">
+        <v>157.6799999999998</v>
+      </c>
+      <c r="H202" t="n">
         <v>155.3050000000001</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="L202" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7955,22 +8529,27 @@
         <v>2786.6201</v>
       </c>
       <c r="G203" t="n">
+        <v>157.6999999999998</v>
+      </c>
+      <c r="H203" t="n">
         <v>155.3783333333335</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="L203" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7994,22 +8573,27 @@
         <v>2467.192</v>
       </c>
       <c r="G204" t="n">
+        <v>157.6933333333332</v>
+      </c>
+      <c r="H204" t="n">
         <v>155.4533333333335</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="L204" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8033,22 +8617,27 @@
         <v>821.5463999999999</v>
       </c>
       <c r="G205" t="n">
+        <v>157.6933333333332</v>
+      </c>
+      <c r="H205" t="n">
         <v>155.5300000000001</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="L205" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8072,22 +8661,27 @@
         <v>9178.4535</v>
       </c>
       <c r="G206" t="n">
+        <v>157.6999999999998</v>
+      </c>
+      <c r="H206" t="n">
         <v>155.6183333333335</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="L206" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8111,22 +8705,27 @@
         <v>5000.0001</v>
       </c>
       <c r="G207" t="n">
+        <v>157.7133333333332</v>
+      </c>
+      <c r="H207" t="n">
         <v>155.7100000000002</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="L207" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8150,22 +8749,27 @@
         <v>6396.8029</v>
       </c>
       <c r="G208" t="n">
+        <v>157.7866666666665</v>
+      </c>
+      <c r="H208" t="n">
         <v>155.8216666666668</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="L208" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8189,22 +8793,27 @@
         <v>13880</v>
       </c>
       <c r="G209" t="n">
+        <v>157.8799999999999</v>
+      </c>
+      <c r="H209" t="n">
         <v>155.9550000000002</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="L209" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8228,22 +8837,27 @@
         <v>1718.5</v>
       </c>
       <c r="G210" t="n">
+        <v>157.8999999999999</v>
+      </c>
+      <c r="H210" t="n">
         <v>156.0883333333335</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="L210" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8267,22 +8881,27 @@
         <v>208.0624</v>
       </c>
       <c r="G211" t="n">
+        <v>157.9266666666666</v>
+      </c>
+      <c r="H211" t="n">
         <v>156.2233333333335</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="L211" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8306,22 +8925,27 @@
         <v>3050.3578</v>
       </c>
       <c r="G212" t="n">
+        <v>158.0066666666665</v>
+      </c>
+      <c r="H212" t="n">
         <v>156.3416666666668</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="L212" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8345,22 +8969,27 @@
         <v>3625</v>
       </c>
       <c r="G213" t="n">
+        <v>158.0933333333332</v>
+      </c>
+      <c r="H213" t="n">
         <v>156.4550000000002</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="L213" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8384,22 +9013,27 @@
         <v>34700</v>
       </c>
       <c r="G214" t="n">
+        <v>158.2933333333332</v>
+      </c>
+      <c r="H214" t="n">
         <v>156.5700000000002</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="L214" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8423,22 +9057,27 @@
         <v>475</v>
       </c>
       <c r="G215" t="n">
+        <v>158.4599999999999</v>
+      </c>
+      <c r="H215" t="n">
         <v>156.6916666666669</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="L215" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8462,22 +9101,27 @@
         <v>11307.4007</v>
       </c>
       <c r="G216" t="n">
+        <v>158.7533333333332</v>
+      </c>
+      <c r="H216" t="n">
         <v>156.8333333333335</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="L216" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8501,22 +9145,27 @@
         <v>4620</v>
       </c>
       <c r="G217" t="n">
+        <v>159.0399999999998</v>
+      </c>
+      <c r="H217" t="n">
         <v>156.9616666666669</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="L217" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8540,22 +9189,27 @@
         <v>8482.3706</v>
       </c>
       <c r="G218" t="n">
+        <v>159.2533333333331</v>
+      </c>
+      <c r="H218" t="n">
         <v>157.0733333333336</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="L218" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8579,22 +9233,27 @@
         <v>2699.1437</v>
       </c>
       <c r="G219" t="n">
+        <v>159.6199999999998</v>
+      </c>
+      <c r="H219" t="n">
         <v>157.2233333333335</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="L219" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8618,22 +9277,27 @@
         <v>516.8807</v>
       </c>
       <c r="G220" t="n">
+        <v>160.0133333333332</v>
+      </c>
+      <c r="H220" t="n">
         <v>157.3833333333336</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="L220" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8657,22 +9321,27 @@
         <v>903.811</v>
       </c>
       <c r="G221" t="n">
+        <v>160.4466666666665</v>
+      </c>
+      <c r="H221" t="n">
         <v>157.5533333333336</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="L221" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8696,22 +9365,27 @@
         <v>5954.4834</v>
       </c>
       <c r="G222" t="n">
+        <v>160.9133333333331</v>
+      </c>
+      <c r="H222" t="n">
         <v>157.7333333333335</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="L222" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8735,22 +9409,27 @@
         <v>2325.8743</v>
       </c>
       <c r="G223" t="n">
+        <v>161.3199999999998</v>
+      </c>
+      <c r="H223" t="n">
         <v>157.9133333333335</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="L223" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8774,22 +9453,27 @@
         <v>10</v>
       </c>
       <c r="G224" t="n">
+        <v>161.7133333333332</v>
+      </c>
+      <c r="H224" t="n">
         <v>158.0933333333335</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+      <c r="L224" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,22 +9497,27 @@
         <v>61</v>
       </c>
       <c r="G225" t="n">
+        <v>162.0199999999998</v>
+      </c>
+      <c r="H225" t="n">
         <v>158.2516666666669</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="L225" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8852,22 +9541,27 @@
         <v>1201.3604</v>
       </c>
       <c r="G226" t="n">
+        <v>162.3933333333331</v>
+      </c>
+      <c r="H226" t="n">
         <v>158.4283333333335</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="L226" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8891,22 +9585,27 @@
         <v>202.1006</v>
       </c>
       <c r="G227" t="n">
+        <v>162.7666666666665</v>
+      </c>
+      <c r="H227" t="n">
         <v>158.6050000000002</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="L227" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8930,22 +9629,27 @@
         <v>61</v>
       </c>
       <c r="G228" t="n">
+        <v>163.0599999999998</v>
+      </c>
+      <c r="H228" t="n">
         <v>158.7616666666669</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+      <c r="L228" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8969,22 +9673,27 @@
         <v>214.4106</v>
       </c>
       <c r="G229" t="n">
+        <v>163.2999999999998</v>
+      </c>
+      <c r="H229" t="n">
         <v>158.9033333333335</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+      <c r="L229" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9008,22 +9717,27 @@
         <v>224.6197</v>
       </c>
       <c r="G230" t="n">
+        <v>163.5599999999998</v>
+      </c>
+      <c r="H230" t="n">
         <v>159.0450000000002</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+      <c r="L230" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9047,22 +9761,27 @@
         <v>5000</v>
       </c>
       <c r="G231" t="n">
+        <v>163.7199999999998</v>
+      </c>
+      <c r="H231" t="n">
         <v>159.1900000000002</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+      <c r="L231" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9086,22 +9805,27 @@
         <v>61</v>
       </c>
       <c r="G232" t="n">
+        <v>163.8466666666665</v>
+      </c>
+      <c r="H232" t="n">
         <v>159.3250000000002</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+      <c r="L232" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9125,22 +9849,27 @@
         <v>4000</v>
       </c>
       <c r="G233" t="n">
+        <v>164.0333333333332</v>
+      </c>
+      <c r="H233" t="n">
         <v>159.4350000000002</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="L233" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9164,22 +9893,27 @@
         <v>68.633</v>
       </c>
       <c r="G234" t="n">
+        <v>164.1066666666665</v>
+      </c>
+      <c r="H234" t="n">
         <v>159.5550000000002</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="L234" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9203,22 +9937,27 @@
         <v>5011.0922</v>
       </c>
       <c r="G235" t="n">
+        <v>164.1999999999998</v>
+      </c>
+      <c r="H235" t="n">
         <v>159.6883333333336</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="L235" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9242,22 +9981,27 @@
         <v>11090.522</v>
       </c>
       <c r="G236" t="n">
+        <v>164.2733333333332</v>
+      </c>
+      <c r="H236" t="n">
         <v>159.8333333333335</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="L236" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9281,22 +10025,27 @@
         <v>3143.1129</v>
       </c>
       <c r="G237" t="n">
+        <v>164.3533333333332</v>
+      </c>
+      <c r="H237" t="n">
         <v>159.9833333333335</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="L237" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9320,22 +10069,413 @@
         <v>783.2349</v>
       </c>
       <c r="G238" t="n">
+        <v>164.4999999999999</v>
+      </c>
+      <c r="H238" t="n">
         <v>160.1550000000002</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="L238" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>167</v>
+      </c>
+      <c r="C239" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="D239" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="E239" t="n">
+        <v>167</v>
+      </c>
+      <c r="F239" t="n">
+        <v>13718.6664</v>
+      </c>
+      <c r="G239" t="n">
+        <v>164.6866666666665</v>
+      </c>
+      <c r="H239" t="n">
+        <v>160.3350000000002</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1.073456591639872</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="C240" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="D240" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="F240" t="n">
+        <v>11019.3574</v>
+      </c>
+      <c r="G240" t="n">
+        <v>165.0133333333332</v>
+      </c>
+      <c r="H240" t="n">
+        <v>160.5266666666669</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>167</v>
+      </c>
+      <c r="C241" t="n">
+        <v>167</v>
+      </c>
+      <c r="D241" t="n">
+        <v>167</v>
+      </c>
+      <c r="E241" t="n">
+        <v>167</v>
+      </c>
+      <c r="F241" t="n">
+        <v>369.6078</v>
+      </c>
+      <c r="G241" t="n">
+        <v>165.1666666666665</v>
+      </c>
+      <c r="H241" t="n">
+        <v>160.6616666666669</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>167</v>
+      </c>
+      <c r="C242" t="n">
+        <v>167</v>
+      </c>
+      <c r="D242" t="n">
+        <v>167</v>
+      </c>
+      <c r="E242" t="n">
+        <v>167</v>
+      </c>
+      <c r="F242" t="n">
+        <v>640.649</v>
+      </c>
+      <c r="G242" t="n">
+        <v>165.3199999999999</v>
+      </c>
+      <c r="H242" t="n">
+        <v>160.8266666666669</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="C243" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="E243" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="F243" t="n">
+        <v>232.2064</v>
+      </c>
+      <c r="G243" t="n">
+        <v>165.5866666666665</v>
+      </c>
+      <c r="H243" t="n">
+        <v>161.0166666666669</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>167.4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="D244" t="n">
+        <v>167.4</v>
+      </c>
+      <c r="E244" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="F244" t="n">
+        <v>26377.0273</v>
+      </c>
+      <c r="G244" t="n">
+        <v>165.7733333333332</v>
+      </c>
+      <c r="H244" t="n">
+        <v>161.1883333333335</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>5071.765</v>
+      </c>
+      <c r="G245" t="n">
+        <v>165.9199999999999</v>
+      </c>
+      <c r="H245" t="n">
+        <v>161.3533333333335</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="C246" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="E246" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>8181.4516</v>
+      </c>
+      <c r="G246" t="n">
+        <v>166.0599999999999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>161.5300000000002</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>16951.7116</v>
+      </c>
+      <c r="G247" t="n">
+        <v>166.2333333333332</v>
+      </c>
+      <c r="H247" t="n">
+        <v>161.7000000000002</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="C248" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G248" t="n">
+        <v>166.4133333333332</v>
+      </c>
+      <c r="H248" t="n">
+        <v>161.8500000000002</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ICX.xlsx
+++ b/BackTest/2020-01-16 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N306"/>
+  <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>52843.2841</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>53131.6729</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>151.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>52714.0517</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="J4" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>52365.0517</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J5" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +603,19 @@
         <v>52365.0517</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>152.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>152.2</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +640,23 @@
         <v>52365.0517</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>152.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +681,23 @@
         <v>14018.0104</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>152.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +722,23 @@
         <v>16438.961</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>150.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +763,23 @@
         <v>10784.8248</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>150.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +806,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +845,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +884,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +923,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +962,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +1001,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1040,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1079,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1118,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1157,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1196,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1235,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1272,21 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1313,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1352,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1391,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1428,21 @@
         <v>-35100.94082818066</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1469,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1508,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1547,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1586,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1625,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1664,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1703,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1740,21 @@
         <v>-30274.72652818066</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1779,21 @@
         <v>-30817.01452818066</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1818,21 @@
         <v>-30717.01452818066</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1859,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1896,21 @@
         <v>-28240.87852818066</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1935,21 @@
         <v>-24146.85422818066</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1974,21 @@
         <v>-25900.99312818066</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +2015,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +2054,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +2093,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2132,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2171,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2210,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2249,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2288,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2327,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2366,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2405,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2444,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2483,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2522,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2561,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2600,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2637,23 @@
         <v>-66549.42892818066</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>152.8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2680,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2719,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2758,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2797,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2836,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2875,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2914,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2953,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2992,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +3031,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +3070,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +3109,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +3148,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +3187,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +3226,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3265,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3304,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3343,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3382,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3421,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3460,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3499,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3538,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3577,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3616,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3655,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3694,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3733,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3772,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3811,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3850,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3889,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3928,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3967,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +4006,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +4045,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +4084,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +4123,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +4162,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +4201,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +4240,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +4279,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +4318,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +4357,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4396,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4435,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4474,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +4511,23 @@
         <v>-161865.5297281807</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>152.9</v>
+      </c>
+      <c r="J106" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4554,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4593,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4632,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4671,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4710,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4749,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4788,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4827,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4866,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4905,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4944,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4983,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +5022,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +5061,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +5100,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +5139,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +5178,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +5217,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +5256,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +5295,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +5334,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +5373,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +5412,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +5451,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +5490,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +5529,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5568,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5607,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5646,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5685,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5724,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5763,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5802,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5841,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5880,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5919,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5958,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5997,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +6036,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +6075,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +6114,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +6153,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +6192,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +6231,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +6270,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +6309,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +6348,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +6387,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +6426,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +6465,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +6504,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +6543,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +6582,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +6621,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +6660,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +6699,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +6738,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +6777,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +6816,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6855,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6894,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6933,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6972,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +7011,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +7050,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6576,18 +7087,21 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1.0423061760841</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +7128,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +7161,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +7194,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +7227,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +7260,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +7293,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +7326,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +7359,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +7392,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +7425,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +7458,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +7491,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +7524,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +7557,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +7590,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +7623,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +7656,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +7689,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +7722,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +7755,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7332,18 +7786,21 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7368,18 +7825,21 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,22 +7864,19 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>153</v>
-      </c>
-      <c r="K195" t="n">
-        <v>153</v>
-      </c>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7444,26 +7901,19 @@
         <v>-159855.9099281807</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>153</v>
-      </c>
-      <c r="K196" t="n">
-        <v>153</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7488,26 +7938,19 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>152</v>
-      </c>
-      <c r="K197" t="n">
-        <v>153</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7532,26 +7975,19 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="K198" t="n">
-        <v>153</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7576,26 +8012,21 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
         <v>151.3</v>
       </c>
-      <c r="K199" t="n">
-        <v>153</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7620,26 +8051,19 @@
         <v>-170254.4387281807</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="K200" t="n">
-        <v>153</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7666,24 +8090,17 @@
       <c r="H201" t="n">
         <v>1</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>153</v>
-      </c>
-      <c r="K201" t="n">
-        <v>153</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7710,22 +8127,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>153</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7752,22 +8164,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>153</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7794,22 +8201,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>153</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7836,22 +8238,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>153</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7876,26 +8273,19 @@
         <v>-112863.3602281807</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>152.3</v>
-      </c>
-      <c r="K206" t="n">
-        <v>153</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7920,26 +8310,19 @@
         <v>-126487.1302281807</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>152</v>
-      </c>
-      <c r="K207" t="n">
-        <v>153</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7964,26 +8347,19 @@
         <v>-126487.1302281807</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>151</v>
-      </c>
-      <c r="K208" t="n">
-        <v>153</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8010,24 +8386,17 @@
       <c r="H209" t="n">
         <v>1</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>151</v>
-      </c>
-      <c r="K209" t="n">
-        <v>153</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8052,26 +8421,19 @@
         <v>-125961.0513281807</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>151</v>
-      </c>
-      <c r="K210" t="n">
-        <v>153</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8096,26 +8458,19 @@
         <v>-125683.7864281807</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>152</v>
-      </c>
-      <c r="K211" t="n">
-        <v>153</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8140,26 +8495,19 @@
         <v>-125036.1180281807</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="K212" t="n">
-        <v>153</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8184,26 +8532,19 @@
         <v>-125255.4738281807</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="K213" t="n">
-        <v>153</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8228,26 +8569,19 @@
         <v>-123600.4738281807</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="K214" t="n">
-        <v>153</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8272,26 +8606,19 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>153.2</v>
-      </c>
-      <c r="K215" t="n">
-        <v>153</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8318,22 +8645,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>153</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8360,22 +8682,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>153</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8402,22 +8719,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>153</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8444,22 +8756,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>153</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8484,24 +8791,19 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>153</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8526,24 +8828,19 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>153</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8568,24 +8865,19 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>153</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8612,22 +8904,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>153</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8654,22 +8941,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>153</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8696,22 +8978,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>153</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8738,22 +9015,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>153</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8780,22 +9052,17 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>153</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8822,22 +9089,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>153</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8864,22 +9126,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>153</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8904,24 +9161,19 @@
         <v>-112290.3546281807</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>153</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8948,22 +9200,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>153</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8988,24 +9235,19 @@
         <v>-111920.3630281807</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>153</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9032,22 +9274,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>153</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9074,22 +9311,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>153</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9116,22 +9348,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>153</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9158,22 +9385,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>153</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9200,22 +9422,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>153</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9242,22 +9459,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>153</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9284,22 +9496,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>153</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9326,22 +9533,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>153</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9368,22 +9570,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>153</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9410,22 +9607,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>153</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9452,22 +9644,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>153</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9494,22 +9681,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>153</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9536,22 +9718,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>153</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9578,22 +9755,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>153</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9620,22 +9792,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>153</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9662,22 +9829,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>153</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9704,22 +9866,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>153</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9746,22 +9903,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>153</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9788,22 +9940,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>153</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9830,22 +9977,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>153</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9872,22 +10014,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>153</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9914,22 +10051,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>153</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9956,22 +10088,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>153</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9996,24 +10123,19 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>153</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10040,22 +10162,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>153</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10082,22 +10199,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>153</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10122,24 +10234,21 @@
         <v>-97619.22182818067</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>153</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10164,24 +10273,21 @@
         <v>-96916.29492818067</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>157.3</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>153</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10206,24 +10312,21 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>157.4</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>153</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10248,24 +10351,21 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>153</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10292,22 +10392,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>153</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10334,22 +10429,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>153</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10376,22 +10466,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>153</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10418,22 +10503,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>153</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10460,22 +10540,17 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>153</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10502,22 +10577,17 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>153</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10544,22 +10614,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>153</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10586,22 +10651,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>153</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10628,22 +10688,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>153</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10670,22 +10725,17 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>153</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10710,24 +10760,17 @@
         <v>-20319.80952818065</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>153</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10752,24 +10795,15 @@
         <v>-9012.408828180653</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>153</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10796,22 +10830,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>153</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10836,24 +10861,15 @@
         <v>-17494.77942818065</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>153</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10878,24 +10894,15 @@
         <v>-14795.63572818065</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>153</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10920,24 +10927,15 @@
         <v>-14278.75502818065</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>153</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10962,24 +10960,15 @@
         <v>-13374.94402818065</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>153</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11004,24 +10993,15 @@
         <v>-7420.460628180653</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>153</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11046,26 +11026,15 @@
         <v>-7420.460628180653</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>153</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1.072124183006536</v>
-      </c>
-      <c r="N281" t="n">
-        <v>1.073154362416108</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11090,18 +11059,15 @@
         <v>-7410.460628180653</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11126,18 +11092,15 @@
         <v>-7471.460628180653</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11162,18 +11125,15 @@
         <v>-6270.100228180652</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11198,18 +11158,15 @@
         <v>-6270.100228180652</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11234,18 +11191,15 @@
         <v>-6331.100228180652</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11270,18 +11224,15 @@
         <v>-6331.100228180652</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11306,18 +11257,15 @@
         <v>-6106.480528180652</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11342,18 +11290,15 @@
         <v>-1106.480528180652</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11378,18 +11323,15 @@
         <v>-1167.480528180652</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11414,18 +11356,15 @@
         <v>-5167.480528180652</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11450,18 +11389,15 @@
         <v>-5098.847528180652</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11486,18 +11422,15 @@
         <v>-87.75532818065221</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11522,18 +11455,15 @@
         <v>11002.76667181935</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11558,18 +11488,15 @@
         <v>14145.87957181935</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11594,18 +11521,15 @@
         <v>14929.11447181935</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11630,18 +11554,15 @@
         <v>28647.78087181935</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11666,18 +11587,15 @@
         <v>39667.13827181935</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11702,18 +11620,15 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11738,18 +11653,15 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11774,18 +11686,15 @@
         <v>39529.73687181935</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11810,18 +11719,15 @@
         <v>13152.70957181935</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11846,18 +11752,15 @@
         <v>8080.944571819352</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11882,18 +11785,15 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11918,18 +11818,15 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11954,20 +11851,17 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ICX.xlsx
+++ b/BackTest/2020-01-16 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>52843.2841</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>53131.6729</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>151.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>52714.0517</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>154</v>
-      </c>
-      <c r="J4" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>52365.0517</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>153</v>
-      </c>
-      <c r="J5" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>52365.0517</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>152.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>52365.0517</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>14018.0104</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>16438.961</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>10784.8248</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>150.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -924,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -963,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1080,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1119,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1158,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1236,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1272,17 +1144,11 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1314,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1353,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1428,17 +1276,11 @@
         <v>-35100.94082818066</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1470,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1509,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1548,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1740,17 +1540,11 @@
         <v>-30274.72652818066</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1779,17 +1573,11 @@
         <v>-30817.01452818066</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1818,17 +1606,11 @@
         <v>-30717.01452818066</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1896,17 +1672,11 @@
         <v>-28240.87852818066</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1935,17 +1705,11 @@
         <v>-24146.85422818066</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1974,17 +1738,11 @@
         <v>-25900.99312818066</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2094,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2523,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2562,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2637,19 +2299,11 @@
         <v>-66549.42892818066</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2720,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2798,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2837,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2915,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2954,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3188,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3227,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3266,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3305,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3344,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3383,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3422,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3500,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3539,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3578,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3617,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3656,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3695,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3773,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3812,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4202,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4241,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4280,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4319,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4397,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4436,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4475,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4511,19 +3883,11 @@
         <v>-161865.5297281807</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="J106" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4555,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4633,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4672,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4711,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4750,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4828,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4867,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4906,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4984,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5101,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5179,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5218,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5257,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5296,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5335,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5374,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5413,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5452,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5530,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5569,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5608,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5686,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5725,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5764,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5803,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5842,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5881,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5959,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6037,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6076,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6115,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6154,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6193,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6232,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6271,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6310,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6349,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6388,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6427,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6466,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6505,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6622,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6661,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6700,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6739,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6778,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6817,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6856,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6895,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7012,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7051,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7087,19 +6061,13 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
-        <v>1.0423061760841</v>
+        <v>1</v>
       </c>
       <c r="M172" t="inlineStr"/>
     </row>
@@ -7687,10 +6655,14 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="J190" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
@@ -7723,8 +6695,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7756,8 +6734,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7786,15 +6770,15 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -7825,12 +6809,12 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7864,10 +6848,14 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>153</v>
+      </c>
+      <c r="J195" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7901,10 +6889,14 @@
         <v>-159855.9099281807</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>153</v>
+      </c>
+      <c r="J196" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,10 +6930,14 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>152</v>
+      </c>
+      <c r="J197" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7975,10 +6971,14 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="J198" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8012,12 +7012,14 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>151.3</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8051,10 +7053,14 @@
         <v>-170254.4387281807</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="J200" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8090,8 +7096,12 @@
       <c r="H201" t="n">
         <v>1</v>
       </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>153</v>
+      </c>
+      <c r="J201" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8128,7 +7138,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8165,7 +7177,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8202,7 +7216,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8239,7 +7255,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8276,7 +7294,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8313,7 +7333,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8350,7 +7372,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,8 +7410,12 @@
       <c r="H209" t="n">
         <v>1</v>
       </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>151</v>
+      </c>
+      <c r="J209" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8421,10 +7449,14 @@
         <v>-125961.0513281807</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>151</v>
+      </c>
+      <c r="J210" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8461,7 +7493,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8495,10 +7529,14 @@
         <v>-125036.1180281807</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="J212" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8535,7 +7573,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8572,7 +7612,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8609,7 +7651,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,7 +7690,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8683,7 +7729,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8720,7 +7768,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,7 +7807,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8791,10 +7843,12 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8828,10 +7882,12 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8865,10 +7921,12 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8905,7 +7963,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8942,7 +8002,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8979,7 +8041,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,7 +8080,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9053,7 +8119,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9090,7 +8158,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9127,7 +8197,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9161,10 +8233,12 @@
         <v>-112290.3546281807</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9201,7 +8275,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9235,10 +8311,12 @@
         <v>-111920.3630281807</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9275,7 +8353,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9312,7 +8392,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9349,7 +8431,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,7 +8470,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9423,7 +8509,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9460,7 +8548,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9497,7 +8587,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,7 +8626,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9571,7 +8665,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9608,7 +8704,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9645,7 +8743,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9682,7 +8782,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9719,7 +8821,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9756,7 +8860,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9793,7 +8899,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9830,7 +8938,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9867,7 +8977,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9904,7 +9016,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9941,7 +9055,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9978,7 +9094,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10015,7 +9133,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10052,7 +9172,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10089,7 +9211,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10123,10 +9247,12 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10163,7 +9289,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10200,7 +9328,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10234,12 +9364,12 @@
         <v>-97619.22182818067</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10273,12 +9403,12 @@
         <v>-96916.29492818067</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>157.3</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10312,12 +9442,12 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>157.4</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10351,12 +9481,12 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10393,7 +9523,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10430,7 +9562,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,7 +9601,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10504,7 +9640,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10541,7 +9679,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10578,7 +9718,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,7 +9757,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,7 +9796,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10689,7 +9835,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,7 +9874,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10760,16 +9910,20 @@
         <v>-20319.80952818065</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L273" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
       <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
@@ -10795,11 +9949,17 @@
         <v>-9012.408828180653</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10831,8 +9991,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10861,11 +10027,17 @@
         <v>-17494.77942818065</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10894,11 +10066,17 @@
         <v>-14795.63572818065</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10927,11 +10105,17 @@
         <v>-14278.75502818065</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10960,11 +10144,17 @@
         <v>-13374.94402818065</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10993,11 +10183,17 @@
         <v>-7420.460628180653</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11026,11 +10222,17 @@
         <v>-7420.460628180653</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11059,11 +10261,17 @@
         <v>-7410.460628180653</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11092,11 +10300,17 @@
         <v>-7471.460628180653</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11125,11 +10339,17 @@
         <v>-6270.100228180652</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11158,11 +10378,17 @@
         <v>-6270.100228180652</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11191,11 +10417,17 @@
         <v>-6331.100228180652</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11224,11 +10456,17 @@
         <v>-6331.100228180652</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11257,11 +10495,17 @@
         <v>-6106.480528180652</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +10534,17 @@
         <v>-1106.480528180652</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +10573,17 @@
         <v>-1167.480528180652</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11356,11 +10612,17 @@
         <v>-5167.480528180652</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11389,15 +10651,23 @@
         <v>-5098.847528180652</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>1.050305466237942</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1.073154362416108</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11422,7 +10692,7 @@
         <v>-87.75532818065221</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11455,7 +10725,7 @@
         <v>11002.76667181935</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11488,7 +10758,7 @@
         <v>14145.87957181935</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11521,7 +10791,7 @@
         <v>14929.11447181935</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11554,7 +10824,7 @@
         <v>28647.78087181935</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11587,7 +10857,7 @@
         <v>39667.13827181935</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11620,7 +10890,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11653,7 +10923,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11686,7 +10956,7 @@
         <v>39529.73687181935</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11719,7 +10989,7 @@
         <v>13152.70957181935</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11752,7 +11022,7 @@
         <v>8080.944571819352</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11785,7 +11055,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11818,7 +11088,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11851,7 +11121,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11862,6 +11132,6 @@
       <c r="M306" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ICX.xlsx
+++ b/BackTest/2020-01-16 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>52843.2841</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>53131.6729</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>52714.0517</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>14018.0104</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16438.961</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>10784.8248</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>27419.4738</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>29689.346</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>29287.9964</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>28682.75049999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>33439.86579999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>33939.86579999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>33939.86579999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>36375.86579999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-18226.1574</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-27190.87792818066</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-32015.94092818066</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-32015.94092818066</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-122041.8324281806</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-122041.8324281806</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-116164.2413281806</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-118231.5914281806</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-117816.9527281806</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-117816.9527281806</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6655,14 +6655,10 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="J190" t="n">
-        <v>155.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
@@ -6692,1129 +6688,995 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
         <v>155.5</v>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="C192" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1111.33</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-159030.3376281807</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="E193" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5953.1141</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-159030.3376281807</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>153</v>
+      </c>
+      <c r="C194" t="n">
+        <v>153</v>
+      </c>
+      <c r="D194" t="n">
+        <v>153</v>
+      </c>
+      <c r="E194" t="n">
+        <v>153</v>
+      </c>
+      <c r="F194" t="n">
+        <v>626.5723</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-159656.9099281807</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>153</v>
+      </c>
+      <c r="C195" t="n">
+        <v>153</v>
+      </c>
+      <c r="D195" t="n">
+        <v>153</v>
+      </c>
+      <c r="E195" t="n">
+        <v>153</v>
+      </c>
+      <c r="F195" t="n">
+        <v>660.5223</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-159656.9099281807</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>153</v>
+      </c>
+      <c r="C196" t="n">
+        <v>152</v>
+      </c>
+      <c r="D196" t="n">
+        <v>153</v>
+      </c>
+      <c r="E196" t="n">
+        <v>152</v>
+      </c>
+      <c r="F196" t="n">
+        <v>199</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-159855.9099281807</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11031.0627</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-170886.9726281807</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="E198" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>158.3582</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-170886.9726281807</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="C199" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="E199" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="F199" t="n">
+        <v>7804.1622</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-170886.9726281807</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>153</v>
+      </c>
+      <c r="C200" t="n">
+        <v>153</v>
+      </c>
+      <c r="D200" t="n">
+        <v>153</v>
+      </c>
+      <c r="E200" t="n">
+        <v>153</v>
+      </c>
+      <c r="F200" t="n">
+        <v>632.5339</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-170254.4387281807</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>152</v>
+      </c>
+      <c r="F201" t="n">
+        <v>58458.98</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-111795.4587281806</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>153</v>
+      </c>
+      <c r="C202" t="n">
+        <v>153</v>
+      </c>
+      <c r="D202" t="n">
+        <v>153</v>
+      </c>
+      <c r="E202" t="n">
+        <v>153</v>
+      </c>
+      <c r="F202" t="n">
+        <v>322.1542</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-112117.6129281806</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>153</v>
+      </c>
+      <c r="C203" t="n">
+        <v>153</v>
+      </c>
+      <c r="D203" t="n">
+        <v>153</v>
+      </c>
+      <c r="E203" t="n">
+        <v>153</v>
+      </c>
+      <c r="F203" t="n">
+        <v>322</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-112117.6129281806</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="C204" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="D204" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="E204" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>290.2595</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-112407.8724281806</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>224</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-112631.8724281806</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>152</v>
+      </c>
+      <c r="C206" t="n">
+        <v>152</v>
+      </c>
+      <c r="D206" t="n">
+        <v>152</v>
+      </c>
+      <c r="E206" t="n">
+        <v>152</v>
+      </c>
+      <c r="F206" t="n">
+        <v>231.4878</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-112863.3602281807</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="C207" t="n">
+        <v>151</v>
+      </c>
+      <c r="D207" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="E207" t="n">
+        <v>151</v>
+      </c>
+      <c r="F207" t="n">
+        <v>13623.77</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-126487.1302281807</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>151</v>
+      </c>
+      <c r="C208" t="n">
+        <v>151</v>
+      </c>
+      <c r="D208" t="n">
+        <v>151</v>
+      </c>
+      <c r="E208" t="n">
+        <v>151</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2416.4928</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-126487.1302281807</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>151</v>
+      </c>
+      <c r="C209" t="n">
+        <v>151</v>
+      </c>
+      <c r="D209" t="n">
+        <v>151</v>
+      </c>
+      <c r="E209" t="n">
+        <v>151</v>
+      </c>
+      <c r="F209" t="n">
+        <v>231.4879</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-126487.1302281807</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="C210" t="n">
+        <v>152</v>
+      </c>
+      <c r="D210" t="n">
+        <v>152</v>
+      </c>
+      <c r="E210" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="F210" t="n">
+        <v>526.0789</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-125961.0513281807</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="D211" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="E211" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>277.2649</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-125683.7864281807</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>152</v>
+      </c>
+      <c r="J211" t="n">
+        <v>152</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>647.6684</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-125036.1180281807</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="J212" t="n">
+        <v>152</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="C213" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="D213" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="E213" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="F213" t="n">
+        <v>219.3558</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-125255.4738281807</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>152</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>153</v>
+      </c>
+      <c r="C214" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="D214" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>153</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1655</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-123600.4738281807</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="J214" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>154</v>
+      </c>
+      <c r="C215" t="n">
+        <v>154</v>
+      </c>
+      <c r="D215" t="n">
+        <v>154</v>
+      </c>
+      <c r="E215" t="n">
+        <v>154</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5170.6342</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-118429.8396281807</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="J215" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>154</v>
+      </c>
+      <c r="C216" t="n">
+        <v>154</v>
+      </c>
+      <c r="D216" t="n">
+        <v>154</v>
+      </c>
+      <c r="E216" t="n">
+        <v>154</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3499.9999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-118429.8396281807</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>154</v>
+      </c>
+      <c r="J216" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>154</v>
+      </c>
+      <c r="C217" t="n">
+        <v>154</v>
+      </c>
+      <c r="D217" t="n">
+        <v>154</v>
+      </c>
+      <c r="E217" t="n">
+        <v>154</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1000.3</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-118429.8396281807</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>154</v>
+      </c>
+      <c r="J217" t="n">
+        <v>154</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="C218" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="D218" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="E218" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="F218" t="n">
+        <v>355.4844</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-118785.3240281807</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>154</v>
+      </c>
+      <c r="J218" t="n">
+        <v>154</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="C219" t="n">
+        <v>154</v>
+      </c>
+      <c r="D219" t="n">
+        <v>154</v>
+      </c>
+      <c r="E219" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1283.0689</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-117502.2551281807</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="J219" t="n">
+        <v>154</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="C192" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="D192" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="E192" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1111.33</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-159030.3376281807</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="C193" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="D193" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="E193" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="F193" t="n">
-        <v>5953.1141</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-159030.3376281807</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>153</v>
-      </c>
-      <c r="C194" t="n">
-        <v>153</v>
-      </c>
-      <c r="D194" t="n">
-        <v>153</v>
-      </c>
-      <c r="E194" t="n">
-        <v>153</v>
-      </c>
-      <c r="F194" t="n">
-        <v>626.5723</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-159656.9099281807</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>153</v>
-      </c>
-      <c r="C195" t="n">
-        <v>153</v>
-      </c>
-      <c r="D195" t="n">
-        <v>153</v>
-      </c>
-      <c r="E195" t="n">
-        <v>153</v>
-      </c>
-      <c r="F195" t="n">
-        <v>660.5223</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-159656.9099281807</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>153</v>
-      </c>
-      <c r="J195" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>153</v>
-      </c>
-      <c r="C196" t="n">
-        <v>152</v>
-      </c>
-      <c r="D196" t="n">
-        <v>153</v>
-      </c>
-      <c r="E196" t="n">
-        <v>152</v>
-      </c>
-      <c r="F196" t="n">
-        <v>199</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-159855.9099281807</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>153</v>
-      </c>
-      <c r="J196" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="C197" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="D197" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="E197" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="F197" t="n">
-        <v>11031.0627</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-170886.9726281807</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>152</v>
-      </c>
-      <c r="J197" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="C198" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="D198" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="E198" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="F198" t="n">
-        <v>158.3582</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-170886.9726281807</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="J198" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="C199" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="D199" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="E199" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="F199" t="n">
-        <v>7804.1622</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-170886.9726281807</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="J199" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>153</v>
-      </c>
-      <c r="C200" t="n">
-        <v>153</v>
-      </c>
-      <c r="D200" t="n">
-        <v>153</v>
-      </c>
-      <c r="E200" t="n">
-        <v>153</v>
-      </c>
-      <c r="F200" t="n">
-        <v>632.5339</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-170254.4387281807</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="J200" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="C201" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>152</v>
-      </c>
-      <c r="F201" t="n">
-        <v>58458.98</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-111795.4587281806</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>153</v>
-      </c>
-      <c r="J201" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>153</v>
-      </c>
-      <c r="C202" t="n">
-        <v>153</v>
-      </c>
-      <c r="D202" t="n">
-        <v>153</v>
-      </c>
-      <c r="E202" t="n">
-        <v>153</v>
-      </c>
-      <c r="F202" t="n">
-        <v>322.1542</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-112117.6129281806</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>153</v>
-      </c>
-      <c r="C203" t="n">
-        <v>153</v>
-      </c>
-      <c r="D203" t="n">
-        <v>153</v>
-      </c>
-      <c r="E203" t="n">
-        <v>153</v>
-      </c>
-      <c r="F203" t="n">
-        <v>322</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-112117.6129281806</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="C204" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="D204" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="E204" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="F204" t="n">
-        <v>290.2595</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-112407.8724281806</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>152.3</v>
-      </c>
-      <c r="C205" t="n">
-        <v>152.3</v>
-      </c>
-      <c r="D205" t="n">
-        <v>152.3</v>
-      </c>
-      <c r="E205" t="n">
-        <v>152.3</v>
-      </c>
-      <c r="F205" t="n">
-        <v>224</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-112631.8724281806</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>152</v>
-      </c>
-      <c r="C206" t="n">
-        <v>152</v>
-      </c>
-      <c r="D206" t="n">
-        <v>152</v>
-      </c>
-      <c r="E206" t="n">
-        <v>152</v>
-      </c>
-      <c r="F206" t="n">
-        <v>231.4878</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-112863.3602281807</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="C207" t="n">
-        <v>151</v>
-      </c>
-      <c r="D207" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="E207" t="n">
-        <v>151</v>
-      </c>
-      <c r="F207" t="n">
-        <v>13623.77</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-126487.1302281807</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>151</v>
-      </c>
-      <c r="C208" t="n">
-        <v>151</v>
-      </c>
-      <c r="D208" t="n">
-        <v>151</v>
-      </c>
-      <c r="E208" t="n">
-        <v>151</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2416.4928</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-126487.1302281807</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>151</v>
-      </c>
-      <c r="C209" t="n">
-        <v>151</v>
-      </c>
-      <c r="D209" t="n">
-        <v>151</v>
-      </c>
-      <c r="E209" t="n">
-        <v>151</v>
-      </c>
-      <c r="F209" t="n">
-        <v>231.4879</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-126487.1302281807</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>151</v>
-      </c>
-      <c r="J209" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="C210" t="n">
-        <v>152</v>
-      </c>
-      <c r="D210" t="n">
-        <v>152</v>
-      </c>
-      <c r="E210" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="F210" t="n">
-        <v>526.0789</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-125961.0513281807</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>151</v>
-      </c>
-      <c r="J210" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="C211" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="D211" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="E211" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="F211" t="n">
-        <v>277.2649</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-125683.7864281807</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="C212" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="D212" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="E212" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="F212" t="n">
-        <v>647.6684</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-125036.1180281807</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="J212" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="C213" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="D213" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="E213" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="F213" t="n">
-        <v>219.3558</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-125255.4738281807</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>153</v>
-      </c>
-      <c r="C214" t="n">
-        <v>153.2</v>
-      </c>
-      <c r="D214" t="n">
-        <v>153.2</v>
-      </c>
-      <c r="E214" t="n">
-        <v>153</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1655</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-123600.4738281807</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>154</v>
-      </c>
-      <c r="C215" t="n">
-        <v>154</v>
-      </c>
-      <c r="D215" t="n">
-        <v>154</v>
-      </c>
-      <c r="E215" t="n">
-        <v>154</v>
-      </c>
-      <c r="F215" t="n">
-        <v>5170.6342</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-118429.8396281807</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>154</v>
-      </c>
-      <c r="C216" t="n">
-        <v>154</v>
-      </c>
-      <c r="D216" t="n">
-        <v>154</v>
-      </c>
-      <c r="E216" t="n">
-        <v>154</v>
-      </c>
-      <c r="F216" t="n">
-        <v>3499.9999</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-118429.8396281807</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>154</v>
-      </c>
-      <c r="C217" t="n">
-        <v>154</v>
-      </c>
-      <c r="D217" t="n">
-        <v>154</v>
-      </c>
-      <c r="E217" t="n">
-        <v>154</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1000.3</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-118429.8396281807</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="C218" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="D218" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="E218" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="F218" t="n">
-        <v>355.4844</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-118785.3240281807</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="C219" t="n">
-        <v>154</v>
-      </c>
-      <c r="D219" t="n">
-        <v>154</v>
-      </c>
-      <c r="E219" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1283.0689</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-117502.2551281807</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7705,13 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>154</v>
+      </c>
       <c r="J220" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7882,11 +7746,13 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>154</v>
+      </c>
       <c r="J221" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7921,11 +7787,13 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>154</v>
+      </c>
       <c r="J222" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7960,11 +7828,13 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>154.1</v>
+      </c>
       <c r="J223" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7999,11 +7869,13 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>154.1</v>
+      </c>
       <c r="J224" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8038,11 +7910,13 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>154.1</v>
+      </c>
       <c r="J225" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8077,11 +7951,13 @@
         <v>-117089.9907281807</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>154.1</v>
+      </c>
       <c r="J226" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8116,11 +7992,13 @@
         <v>-112889.9907281807</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>154.2</v>
+      </c>
       <c r="J227" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8155,11 +8033,13 @@
         <v>-112362.0374281807</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>155.1</v>
+      </c>
       <c r="J228" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8198,7 +8078,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8237,7 +8117,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8276,7 +8156,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8315,7 +8195,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8354,7 +8234,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8393,7 +8273,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8432,7 +8312,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8471,7 +8351,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8510,7 +8390,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8549,7 +8429,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8588,7 +8468,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8627,7 +8507,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8662,19 +8542,19 @@
         <v>-111546.0842281807</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>155.5</v>
+        <v>154</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1</v>
+        <v>1.009285714285714</v>
       </c>
       <c r="M241" t="inlineStr"/>
     </row>
@@ -8701,17 +8581,11 @@
         <v>-112832.9905281807</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8743,14 +8617,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8782,14 +8650,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8821,14 +8683,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8860,14 +8716,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8899,14 +8749,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8935,17 +8779,11 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8974,17 +8812,11 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9013,17 +8845,11 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9052,17 +8878,11 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9091,17 +8911,11 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9130,17 +8944,11 @@
         <v>-98139.66312818068</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9169,17 +8977,11 @@
         <v>-98139.66312818068</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9208,17 +9010,11 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9247,17 +9043,11 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9289,14 +9079,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9328,14 +9112,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9364,17 +9142,11 @@
         <v>-97619.22182818067</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9403,17 +9175,11 @@
         <v>-96916.29492818067</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9442,17 +9208,11 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9481,17 +9241,11 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9520,17 +9274,11 @@
         <v>-93308.12842818066</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9559,17 +9307,11 @@
         <v>-84129.67492818066</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9601,14 +9343,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9640,14 +9376,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9679,14 +9409,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9718,14 +9442,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9757,14 +9475,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9796,14 +9508,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9835,14 +9541,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9874,14 +9574,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9913,14 +9607,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9952,14 +9640,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9991,14 +9673,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10030,14 +9706,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10069,14 +9739,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10108,14 +9772,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10147,14 +9805,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10186,14 +9838,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10225,14 +9871,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10264,14 +9904,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10303,14 +9937,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10342,14 +9970,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10381,14 +10003,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10420,14 +10036,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10459,14 +10069,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10498,14 +10102,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10537,14 +10135,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10576,14 +10168,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10615,14 +10201,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10651,23 +10231,15 @@
         <v>-5098.847528180652</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
-        <v>1.050305466237942</v>
-      </c>
-      <c r="M292" t="n">
-        <v>1.073154362416108</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10692,7 +10264,7 @@
         <v>-87.75532818065221</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10725,7 +10297,7 @@
         <v>11002.76667181935</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10758,7 +10330,7 @@
         <v>14145.87957181935</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10791,7 +10363,7 @@
         <v>14929.11447181935</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10824,7 +10396,7 @@
         <v>28647.78087181935</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10857,7 +10429,7 @@
         <v>39667.13827181935</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10890,7 +10462,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10923,7 +10495,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10956,7 +10528,7 @@
         <v>39529.73687181935</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10989,7 +10561,7 @@
         <v>13152.70957181935</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11022,7 +10594,7 @@
         <v>8080.944571819352</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11055,7 +10627,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11088,7 +10660,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11121,7 +10693,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11132,6 +10704,6 @@
       <c r="M306" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ICX.xlsx
+++ b/BackTest/2020-01-16 BackTest ICX.xlsx
@@ -451,7 +451,7 @@
         <v>52843.2841</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>53131.6729</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>52714.0517</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>14018.0104</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16438.961</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>10784.8248</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>27419.4738</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>29689.346</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>29287.9964</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>28682.75049999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>33439.86579999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>33939.86579999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>33939.86579999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>36375.86579999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-18226.1574</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-27190.87792818066</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-32015.94092818066</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-32015.94092818066</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-122041.8324281806</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-122041.8324281806</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-116164.2413281806</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-118231.5914281806</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-117816.9527281806</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-117816.9527281806</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6457,10 +6457,14 @@
         <v>-156863.4631281807</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="J184" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
@@ -6493,8 +6497,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6536,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6704,7 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,10 +6737,14 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="J192" t="n">
+        <v>155.5</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
@@ -6754,11 +6774,17 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6813,19 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="J194" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6854,19 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>153</v>
+      </c>
+      <c r="J195" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6895,19 @@
         <v>-159855.9099281807</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>153</v>
+      </c>
+      <c r="J196" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6936,19 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>152</v>
+      </c>
+      <c r="J197" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6977,19 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="J198" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7018,19 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="J199" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7059,19 @@
         <v>-170254.4387281807</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="J200" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7100,19 @@
         <v>-111795.4587281806</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>153</v>
+      </c>
+      <c r="J201" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7141,17 @@
         <v>-112117.6129281806</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7183,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7222,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7261,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7300,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7339,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7375,19 @@
         <v>-126487.1302281807</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>151</v>
+      </c>
+      <c r="J208" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7416,19 @@
         <v>-126487.1302281807</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>151</v>
+      </c>
+      <c r="J209" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7460,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,15 +7496,17 @@
         <v>-125683.7864281807</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>152</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+        <v>155.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,17 +7535,15 @@
         <v>-125036.1180281807</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>152.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>152</v>
+        <v>155.5</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L212" t="n">
@@ -7426,17 +7574,15 @@
         <v>-125255.4738281807</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>153.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>152</v>
+        <v>155.5</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -7467,15 +7613,17 @@
         <v>-123600.4738281807</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>152.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+        <v>155.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7504,17 +7652,15 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>153.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>152.7</v>
+        <v>155.5</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7545,17 +7691,15 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>152.7</v>
+        <v>155.5</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7586,15 +7730,17 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>154</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+        <v>155.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7623,17 +7769,15 @@
         <v>-118785.3240281807</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -7664,17 +7808,15 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>153.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L219" t="n">
@@ -7705,13 +7847,11 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7746,13 +7886,11 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7787,13 +7925,11 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7828,13 +7964,11 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>154.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7869,13 +8003,11 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>154.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -7910,13 +8042,11 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>154.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -7951,13 +8081,11 @@
         <v>-117089.9907281807</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>154.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -7992,13 +8120,11 @@
         <v>-112889.9907281807</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>154.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8033,13 +8159,11 @@
         <v>-112362.0374281807</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>155.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8078,7 +8202,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8117,7 +8241,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8156,7 +8280,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8195,7 +8319,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8234,7 +8358,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8273,7 +8397,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8312,7 +8436,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8351,7 +8475,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8390,7 +8514,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8429,7 +8553,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8468,7 +8592,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8507,7 +8631,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8542,19 +8666,19 @@
         <v>-111546.0842281807</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>154</v>
+        <v>155.5</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1.009285714285714</v>
+        <v>1</v>
       </c>
       <c r="M241" t="inlineStr"/>
     </row>
@@ -8581,11 +8705,17 @@
         <v>-112832.9905281807</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8617,8 +8747,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8650,8 +8786,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8683,8 +8825,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8716,8 +8864,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8749,8 +8903,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8779,11 +8939,17 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8812,11 +8978,17 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8845,11 +9017,17 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8878,11 +9056,17 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +9095,17 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8944,11 +9134,17 @@
         <v>-98139.66312818068</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +9173,17 @@
         <v>-98139.66312818068</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9010,11 +9212,17 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9043,11 +9251,17 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9079,8 +9293,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9112,8 +9332,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9142,11 +9368,17 @@
         <v>-97619.22182818067</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9175,11 +9407,17 @@
         <v>-96916.29492818067</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9208,11 +9446,19 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="J261" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +9487,19 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="J262" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9274,11 +9528,17 @@
         <v>-93308.12842818066</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9307,11 +9567,17 @@
         <v>-84129.67492818066</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9343,8 +9609,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9376,8 +9648,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9409,8 +9687,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9442,8 +9726,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +9765,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9508,8 +9804,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9541,8 +9843,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +9882,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9607,8 +9921,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9640,8 +9960,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9673,8 +9999,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9706,8 +10038,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9739,8 +10077,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9772,8 +10116,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9805,8 +10155,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9838,8 +10194,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9871,8 +10233,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9904,8 +10272,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9937,8 +10311,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9970,8 +10350,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10003,8 +10389,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10036,8 +10428,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10069,8 +10467,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10102,8 +10506,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10135,8 +10545,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10168,8 +10584,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +10623,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10234,8 +10662,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10267,8 +10701,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10300,8 +10740,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10333,8 +10779,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10366,8 +10818,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10396,15 +10854,23 @@
         <v>28647.78087181935</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+        <v>1.073456591639872</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1.073154362416108</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10429,7 +10895,7 @@
         <v>39667.13827181935</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10462,7 +10928,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10495,7 +10961,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10528,7 +10994,7 @@
         <v>39529.73687181935</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10561,7 +11027,7 @@
         <v>13152.70957181935</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10594,7 +11060,7 @@
         <v>8080.944571819352</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10627,7 +11093,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10660,7 +11126,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10693,7 +11159,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
